--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tony/code/bigdata-platform-deploy/docs/设计资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kassell/workspace/deployment/docs/设计资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -999,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1415">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1364,7 +1361,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1384,7 +1381,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -9602,14 +9599,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>livy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -10664,6 +10653,12 @@
   <si>
     <t>/data/logs/fine-operation-web</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20360</t>
+  </si>
+  <si>
+    <t>20360以被spark thriftserver占用</t>
   </si>
 </sst>
 </file>
@@ -10674,7 +10669,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10682,14 +10677,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10698,7 +10693,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10707,7 +10702,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10715,7 +10710,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10744,7 +10739,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10766,7 +10761,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10775,7 +10770,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10783,7 +10778,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10792,7 +10787,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10817,7 +10812,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11538,10 +11533,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11557,173 +11552,173 @@
     </xf>
   </cellXfs>
   <cellStyles count="167">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -12009,7 +12004,7 @@
       <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -12039,7 +12034,7 @@
     <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -12080,7 +12075,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="7"/>
@@ -12094,7 +12089,7 @@
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
     </row>
-    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="133" t="s">
         <v>43</v>
       </c>
@@ -12115,10 +12110,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="J2" s="118" t="s">
         <v>23</v>
@@ -12141,7 +12136,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="133"/>
       <c r="B3" s="118" t="s">
         <v>8</v>
@@ -12162,10 +12157,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J3" s="118" t="s">
         <v>23</v>
@@ -12188,7 +12183,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="133"/>
       <c r="B4" s="118" t="s">
         <v>9</v>
@@ -12209,16 +12204,16 @@
         <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J4" s="118" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="L4" s="118" t="s">
         <v>17</v>
@@ -12227,7 +12222,7 @@
         <v>69</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -12241,7 +12236,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
         <v>60</v>
       </c>
@@ -12276,7 +12271,7 @@
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -12290,7 +12285,7 @@
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="133"/>
       <c r="B6" s="118" t="s">
         <v>362</v>
@@ -12323,7 +12318,7 @@
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -12337,7 +12332,7 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="133"/>
       <c r="B7" s="118" t="s">
         <v>531</v>
@@ -12370,7 +12365,7 @@
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -12384,7 +12379,7 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="133"/>
       <c r="B8" s="118" t="s">
         <v>532</v>
@@ -12417,7 +12412,7 @@
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -12431,7 +12426,7 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="133"/>
       <c r="B9" s="118" t="s">
         <v>533</v>
@@ -12464,7 +12459,7 @@
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -12478,7 +12473,7 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -12549,16 +12544,16 @@
         <v>1189</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="133" t="s">
         <v>40</v>
       </c>
@@ -12613,10 +12608,10 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="1" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="133"/>
       <c r="B12" s="118" t="s">
         <v>535</v>
@@ -12669,10 +12664,10 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="1" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="133"/>
       <c r="B13" s="118" t="s">
         <v>363</v>
@@ -12725,10 +12720,10 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="1" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="133"/>
       <c r="B14" s="118" t="s">
         <v>364</v>
@@ -12781,7 +12776,7 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="133"/>
       <c r="B15" s="118" t="s">
         <v>365</v>
@@ -12803,14 +12798,14 @@
         <v>25</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="9" t="s">
         <v>48</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="M15" s="118" t="s">
         <v>33</v>
@@ -12834,7 +12829,7 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="133"/>
       <c r="B16" s="118" t="s">
         <v>366</v>
@@ -12863,7 +12858,7 @@
         <v>861</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="M16" s="118"/>
       <c r="N16" s="9"/>
@@ -12884,10 +12879,10 @@
       </c>
       <c r="X16" s="18"/>
       <c r="Y16" s="122" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="133"/>
       <c r="B17" s="118" t="s">
         <v>367</v>
@@ -12921,7 +12916,7 @@
         <v>51</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="R17" s="118" t="s">
         <v>32</v>
@@ -12938,13 +12933,13 @@
         <v>1191</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Y17" s="122" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -12993,7 +12988,7 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
-    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="133" t="s">
         <v>39</v>
       </c>
@@ -13030,7 +13025,7 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="133"/>
       <c r="B20" s="118" t="s">
         <v>28</v>
@@ -13065,7 +13060,7 @@
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
     </row>
-    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="133"/>
       <c r="B21" s="118" t="s">
         <v>29</v>
@@ -13100,7 +13095,7 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
     </row>
-    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="133"/>
       <c r="B22" s="118" t="s">
         <v>30</v>
@@ -13135,7 +13130,7 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
     </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="133"/>
       <c r="B23" s="118" t="s">
         <v>31</v>
@@ -13170,7 +13165,7 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
     </row>
-    <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="133"/>
       <c r="B24" s="118" t="s">
         <v>34</v>
@@ -13211,7 +13206,7 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="133"/>
       <c r="B25" s="118" t="s">
         <v>36</v>
@@ -13250,7 +13245,7 @@
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="133"/>
       <c r="B26" s="118" t="s">
         <v>37</v>
@@ -13289,7 +13284,7 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="133"/>
       <c r="B27" s="118" t="s">
         <v>38</v>
@@ -13324,7 +13319,7 @@
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
     </row>
-    <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="133"/>
       <c r="B28" s="118" t="s">
         <v>42</v>
@@ -13359,7 +13354,7 @@
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="133"/>
       <c r="B29" s="118" t="s">
         <v>163</v>
@@ -13394,7 +13389,7 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="133"/>
       <c r="B30" s="118" t="s">
         <v>310</v>
@@ -13429,7 +13424,7 @@
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="133"/>
       <c r="B31" s="118" t="s">
         <v>311</v>
@@ -13464,7 +13459,7 @@
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="133"/>
       <c r="B32" s="118" t="s">
         <v>312</v>
@@ -13499,23 +13494,23 @@
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -13525,7 +13520,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="2"/>
@@ -13549,16 +13544,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S95"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
@@ -13582,7 +13577,7 @@
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
@@ -13635,7 +13630,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>74</v>
       </c>
@@ -13686,7 +13681,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
@@ -13735,7 +13730,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
@@ -13786,7 +13781,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>74</v>
       </c>
@@ -13839,7 +13834,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>74</v>
       </c>
@@ -13888,7 +13883,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
@@ -13937,7 +13932,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>74</v>
       </c>
@@ -13988,7 +13983,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>74</v>
       </c>
@@ -14041,7 +14036,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>74</v>
       </c>
@@ -14092,7 +14087,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>74</v>
       </c>
@@ -14143,7 +14138,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
@@ -14192,7 +14187,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>74</v>
       </c>
@@ -14241,7 +14236,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>74</v>
       </c>
@@ -14249,16 +14244,16 @@
         <v>68</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>555</v>
@@ -14290,24 +14285,24 @@
         <v>628</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>555</v>
@@ -14316,13 +14311,13 @@
         <v>403</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>1355</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>1357</v>
-      </c>
       <c r="K15" s="20" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
@@ -14339,7 +14334,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>74</v>
       </c>
@@ -14388,7 +14383,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>74</v>
       </c>
@@ -14402,10 +14397,10 @@
         <v>170</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>555</v>
@@ -14437,7 +14432,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>74</v>
       </c>
@@ -14445,14 +14440,14 @@
         <v>69</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>555</v>
@@ -14461,13 +14456,13 @@
         <v>403</v>
       </c>
       <c r="I18" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>1215</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>1216</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>1217</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -14480,7 +14475,7 @@
       </c>
       <c r="Q18" s="112"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>74</v>
       </c>
@@ -14531,7 +14526,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>74</v>
       </c>
@@ -14582,7 +14577,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>74</v>
       </c>
@@ -14633,7 +14628,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
@@ -14684,7 +14679,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>74</v>
       </c>
@@ -14698,10 +14693,10 @@
         <v>170</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1203</v>
+        <v>1413</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>1204</v>
+        <v>1413</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>555</v>
@@ -14735,7 +14730,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
@@ -14784,7 +14779,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>74</v>
       </c>
@@ -14833,7 +14828,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>74</v>
       </c>
@@ -14880,7 +14875,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
@@ -14931,7 +14926,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -14982,7 +14977,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>40</v>
       </c>
@@ -15033,7 +15028,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>40</v>
       </c>
@@ -15082,7 +15077,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
@@ -15131,7 +15126,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
@@ -15180,7 +15175,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>40</v>
       </c>
@@ -15229,7 +15224,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
@@ -15270,7 +15265,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="109"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>40</v>
       </c>
@@ -15311,7 +15306,7 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="109"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
@@ -15352,7 +15347,7 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="109"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -15403,7 +15398,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
@@ -15452,7 +15447,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
@@ -15501,7 +15496,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>40</v>
       </c>
@@ -15550,24 +15545,24 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>555</v>
@@ -15576,13 +15571,13 @@
         <v>404</v>
       </c>
       <c r="I41" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K41" s="20" t="s">
         <v>1209</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>1211</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
@@ -15595,24 +15590,24 @@
       </c>
       <c r="Q41" s="112"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>1238</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>1240</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>555</v>
@@ -15621,13 +15616,13 @@
         <v>403</v>
       </c>
       <c r="I42" s="20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>1243</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>1244</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>1245</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -15636,7 +15631,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="115"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>40</v>
       </c>
@@ -15685,7 +15680,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>40</v>
       </c>
@@ -15732,7 +15727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>40</v>
       </c>
@@ -15775,7 +15770,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>40</v>
       </c>
@@ -15818,18 +15813,18 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>1226</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>1228</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -15840,13 +15835,13 @@
         <v>329</v>
       </c>
       <c r="I47" s="20" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>1227</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>1229</v>
-      </c>
       <c r="K47" s="20" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
@@ -15858,10 +15853,10 @@
         <v>354</v>
       </c>
       <c r="Q47" s="113" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
@@ -15904,7 +15899,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>40</v>
       </c>
@@ -15947,7 +15942,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
@@ -15990,7 +15985,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>40</v>
       </c>
@@ -16033,7 +16028,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>40</v>
       </c>
@@ -16076,7 +16071,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>40</v>
       </c>
@@ -16119,7 +16114,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>40</v>
       </c>
@@ -16162,7 +16157,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>40</v>
       </c>
@@ -16205,7 +16200,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>40</v>
       </c>
@@ -16248,7 +16243,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>40</v>
       </c>
@@ -16291,7 +16286,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -16334,7 +16329,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>40</v>
       </c>
@@ -16381,7 +16376,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>40</v>
       </c>
@@ -16428,7 +16423,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>40</v>
       </c>
@@ -16475,7 +16470,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>40</v>
       </c>
@@ -16522,7 +16517,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>40</v>
       </c>
@@ -16569,7 +16564,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>40</v>
       </c>
@@ -16616,7 +16611,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>40</v>
       </c>
@@ -16667,7 +16662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>40</v>
       </c>
@@ -16714,7 +16709,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>40</v>
       </c>
@@ -16738,7 +16733,7 @@
         <v>1194</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="J67" s="20" t="s">
         <v>1200</v>
@@ -16755,7 +16750,7 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="109"/>
     </row>
-    <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>40</v>
       </c>
@@ -16796,7 +16791,7 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="109"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>39</v>
       </c>
@@ -16843,7 +16838,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>39</v>
       </c>
@@ -16890,7 +16885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>39</v>
       </c>
@@ -16937,7 +16932,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>39</v>
       </c>
@@ -16984,7 +16979,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>39</v>
       </c>
@@ -17025,7 +17020,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>39</v>
       </c>
@@ -17068,7 +17063,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>39</v>
       </c>
@@ -17119,7 +17114,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>39</v>
       </c>
@@ -17166,7 +17161,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>39</v>
       </c>
@@ -17183,7 +17178,7 @@
         <v>299</v>
       </c>
       <c r="F77" s="59" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>555</v>
@@ -17192,10 +17187,10 @@
         <v>987</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K77" s="20" t="s">
         <v>426</v>
@@ -17215,7 +17210,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>39</v>
       </c>
@@ -17258,7 +17253,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>39</v>
       </c>
@@ -17305,7 +17300,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>39</v>
       </c>
@@ -17348,7 +17343,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>39</v>
       </c>
@@ -17395,7 +17390,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>39</v>
       </c>
@@ -17444,7 +17439,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>39</v>
       </c>
@@ -17493,7 +17488,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>39</v>
       </c>
@@ -17542,7 +17537,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>39</v>
       </c>
@@ -17591,7 +17586,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>39</v>
       </c>
@@ -17640,7 +17635,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>39</v>
       </c>
@@ -17689,7 +17684,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>39</v>
       </c>
@@ -17738,7 +17733,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>39</v>
       </c>
@@ -17787,7 +17782,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="60" t="s">
         <v>39</v>
       </c>
@@ -17822,21 +17817,21 @@
         <v>614</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>170</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>555</v>
@@ -17845,33 +17840,33 @@
         <v>989</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N91" s="30" t="s">
         <v>1379</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="N91" s="30" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>555</v>
@@ -17880,42 +17875,42 @@
         <v>989</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K92" s="1" t="s">
+      <c r="N92" s="30" t="s">
+        <v>1395</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="N92" s="30" t="s">
+      <c r="P92" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="O92" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>1382</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>555</v>
@@ -17924,33 +17919,33 @@
         <v>1170</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>1389</v>
-      </c>
       <c r="N93" s="30" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>1405</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>555</v>
@@ -17959,30 +17954,30 @@
         <v>987</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="N94" s="30" t="s">
         <v>1407</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="N94" s="30" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>555</v>
@@ -17991,16 +17986,21 @@
         <v>987</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="K95" s="1" t="s">
+      <c r="N95" s="30" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="N95" s="30" t="s">
-        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -18019,7 +18019,7 @@
       <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
@@ -18030,7 +18030,7 @@
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>389</v>
       </c>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>158</v>
       </c>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>539</v>
       </c>
@@ -18089,7 +18089,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>540</v>
       </c>
@@ -18108,7 +18108,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>541</v>
       </c>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>167</v>
       </c>
@@ -18146,7 +18146,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
@@ -18165,7 +18165,7 @@
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>163</v>
       </c>
@@ -18184,7 +18184,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>310</v>
       </c>
@@ -18203,12 +18203,12 @@
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>311</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19" t="s">
@@ -18222,7 +18222,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>312</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>1145</v>
       </c>
@@ -18262,7 +18262,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>1146</v>
       </c>
@@ -18281,7 +18281,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>1187</v>
       </c>
@@ -18298,7 +18298,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>1188</v>
       </c>
@@ -18315,48 +18315,48 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C18" t="s">
         <v>1368</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1370</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>1150</v>
       </c>
       <c r="E18" s="128" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -18375,7 +18375,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
@@ -18389,7 +18389,7 @@
     <col min="10" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>174</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <v>18</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>29</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>1</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>25</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>41</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>38</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>17</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>20</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>15</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>14</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>5</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>6</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>4</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>24</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>12</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>13</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>22</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>23</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>26</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>27</v>
       </c>
@@ -19037,7 +19037,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>28</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>30</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>9</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>11</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>31</v>
       </c>
@@ -19189,7 +19189,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>32</v>
       </c>
@@ -19208,7 +19208,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>33</v>
       </c>
@@ -19227,7 +19227,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
     </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>34</v>
       </c>
@@ -19246,7 +19246,7 @@
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>35</v>
       </c>
@@ -19265,7 +19265,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>36</v>
       </c>
@@ -19284,7 +19284,7 @@
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>37</v>
       </c>
@@ -19303,7 +19303,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>21</v>
       </c>
@@ -19322,7 +19322,7 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>19</v>
       </c>
@@ -19341,7 +19341,7 @@
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>16</v>
       </c>
@@ -19360,7 +19360,7 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
     </row>
-    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>7</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>8</v>
       </c>
@@ -19406,7 +19406,7 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
     </row>
-    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>39</v>
       </c>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>40</v>
       </c>
@@ -19477,7 +19477,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="50" bestFit="1" customWidth="1"/>
@@ -19490,14 +19490,14 @@
     <col min="10" max="11" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>1104</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>1100</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="110" t="s">
         <v>1111</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="110" t="s">
         <v>1112</v>
       </c>
@@ -19530,7 +19530,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="110" t="s">
         <v>1113</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="110" t="s">
         <v>1114</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="110" t="s">
         <v>1115</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="110" t="s">
         <v>1116</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="110" t="s">
         <v>1117</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="110" t="s">
         <v>1120</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="110" t="s">
         <v>1121</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="110" t="s">
         <v>1122</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>1123</v>
       </c>
@@ -19629,7 +19629,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>1124</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>1125</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="110" t="s">
         <v>1101</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="110" t="s">
         <v>1102</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>1136</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>150</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>51</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
         <v>1173</v>
       </c>
@@ -19717,7 +19717,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>107</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="110" t="s">
         <v>1103</v>
       </c>
@@ -19739,18 +19739,18 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="132" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B24" s="132" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>1373</v>
       </c>
-      <c r="B24" s="132" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="110" t="s">
         <v>1180</v>
       </c>
@@ -19761,24 +19761,24 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="111"/>
       <c r="B26" s="111"/>
       <c r="C26" s="111"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="111"/>
       <c r="B27" s="111"/>
       <c r="C27" s="111"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="92" t="s">
         <v>1138</v>
       </c>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
         <v>357</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>1183</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>1184</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="51" t="s">
         <v>1182</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="92" t="s">
         <v>1139</v>
       </c>
@@ -19844,7 +19844,7 @@
       <c r="E36" s="121"/>
       <c r="F36" s="121"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="120" t="s">
         <v>359</v>
       </c>
@@ -19864,23 +19864,23 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="123" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B38" s="135" t="s">
         <v>1329</v>
-      </c>
-      <c r="B38" s="135" t="s">
-        <v>1331</v>
       </c>
       <c r="C38" s="119"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="134" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="123" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B39" s="135"/>
       <c r="C39" s="119"/>
@@ -19888,9 +19888,9 @@
       <c r="E39" s="17"/>
       <c r="F39" s="134"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="123" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B40" s="135"/>
       <c r="C40" s="119"/>
@@ -19898,9 +19898,9 @@
       <c r="E40" s="17"/>
       <c r="F40" s="134"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="123" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B41" s="135"/>
       <c r="C41" s="119"/>
@@ -19908,9 +19908,9 @@
       <c r="E41" s="17"/>
       <c r="F41" s="134"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="123" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B42" s="135"/>
       <c r="C42" s="119"/>
@@ -19918,9 +19918,9 @@
       <c r="E42" s="17"/>
       <c r="F42" s="134"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="123" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B43" s="135"/>
       <c r="C43" s="119"/>
@@ -19928,9 +19928,9 @@
       <c r="E43" s="17"/>
       <c r="F43" s="134"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="124" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B44" s="135"/>
       <c r="C44" s="119"/>
@@ -19938,9 +19938,9 @@
       <c r="E44" s="17"/>
       <c r="F44" s="134"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="124" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B45" s="135"/>
       <c r="C45" s="119"/>
@@ -19948,9 +19948,9 @@
       <c r="E45" s="17"/>
       <c r="F45" s="134"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="124" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B46" s="135"/>
       <c r="C46" s="119"/>
@@ -19958,9 +19958,9 @@
       <c r="E46" s="17"/>
       <c r="F46" s="134"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="124" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B47" s="135"/>
       <c r="C47" s="119"/>
@@ -19968,9 +19968,9 @@
       <c r="E47" s="17"/>
       <c r="F47" s="134"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="124" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B48" s="135"/>
       <c r="C48" s="119"/>
@@ -19978,9 +19978,9 @@
       <c r="E48" s="17"/>
       <c r="F48" s="134"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="124" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B49" s="135"/>
       <c r="C49" s="119"/>
@@ -19988,9 +19988,9 @@
       <c r="E49" s="17"/>
       <c r="F49" s="134"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="124" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B50" s="135"/>
       <c r="C50" s="119"/>
@@ -19998,9 +19998,9 @@
       <c r="E50" s="17"/>
       <c r="F50" s="134"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="124" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B51" s="135"/>
       <c r="C51" s="119"/>
@@ -20008,9 +20008,9 @@
       <c r="E51" s="17"/>
       <c r="F51" s="134"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="124" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B52" s="135"/>
       <c r="C52" s="119"/>
@@ -20018,9 +20018,9 @@
       <c r="E52" s="17"/>
       <c r="F52" s="134"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B53" s="135"/>
       <c r="C53" s="119"/>
@@ -20028,7 +20028,7 @@
       <c r="E53" s="17"/>
       <c r="F53" s="134"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="s">
         <v>83</v>
       </c>
@@ -20038,9 +20038,9 @@
       <c r="E54" s="17"/>
       <c r="F54" s="134"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="124" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B55" s="135"/>
       <c r="C55" s="119"/>
@@ -20048,9 +20048,9 @@
       <c r="E55" s="17"/>
       <c r="F55" s="134"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="124" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B56" s="135"/>
       <c r="C56" s="119"/>
@@ -20058,9 +20058,9 @@
       <c r="E56" s="17"/>
       <c r="F56" s="134"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B57" s="135"/>
       <c r="C57" s="119"/>
@@ -20068,9 +20068,9 @@
       <c r="E57" s="17"/>
       <c r="F57" s="134"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="124" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B58" s="135"/>
       <c r="C58" s="119"/>
@@ -20078,9 +20078,9 @@
       <c r="E58" s="17"/>
       <c r="F58" s="134"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="124" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B59" s="135"/>
       <c r="C59" s="119"/>
@@ -20088,9 +20088,9 @@
       <c r="E59" s="17"/>
       <c r="F59" s="134"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B60" s="135"/>
       <c r="C60" s="119"/>
@@ -20098,7 +20098,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="134"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="124" t="s">
         <v>80</v>
       </c>
@@ -20107,40 +20107,40 @@
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="119" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C62" s="119"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="52" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="125" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B63" s="136" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
       <c r="F63" s="134" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="125" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B64" s="136"/>
       <c r="C64" s="119"/>
@@ -20148,9 +20148,9 @@
       <c r="E64" s="17"/>
       <c r="F64" s="134"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="125" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="119"/>
@@ -20158,9 +20158,9 @@
       <c r="E65" s="17"/>
       <c r="F65" s="134"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="125" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B66" s="136"/>
       <c r="C66" s="119"/>
@@ -20168,9 +20168,9 @@
       <c r="E66" s="17"/>
       <c r="F66" s="134"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="125" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B67" s="136"/>
       <c r="C67" s="119"/>
@@ -20178,9 +20178,9 @@
       <c r="E67" s="17"/>
       <c r="F67" s="134"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="125" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B68" s="136"/>
       <c r="C68" s="119"/>
@@ -20188,7 +20188,7 @@
       <c r="E68" s="17"/>
       <c r="F68" s="134"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="125" t="s">
         <v>82</v>
       </c>
@@ -20198,21 +20198,21 @@
       <c r="E69" s="17"/>
       <c r="F69" s="134"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="125" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B70" s="136"/>
       <c r="C70" s="119"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="134" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="125" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B71" s="136"/>
       <c r="C71" s="119"/>
@@ -20220,9 +20220,9 @@
       <c r="E71" s="17"/>
       <c r="F71" s="134"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="125" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B72" s="136"/>
       <c r="C72" s="119"/>
@@ -20230,9 +20230,9 @@
       <c r="E72" s="17"/>
       <c r="F72" s="134"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="125" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B73" s="136"/>
       <c r="C73" s="119"/>
@@ -20240,9 +20240,9 @@
       <c r="E73" s="17"/>
       <c r="F73" s="134"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="125" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B74" s="136"/>
       <c r="C74" s="119"/>
@@ -20250,9 +20250,9 @@
       <c r="E74" s="17"/>
       <c r="F74" s="134"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="125" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B75" s="136"/>
       <c r="C75" s="119"/>
@@ -20260,7 +20260,7 @@
       <c r="E75" s="17"/>
       <c r="F75" s="134"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="125" t="s">
         <v>84</v>
       </c>
@@ -20269,149 +20269,149 @@
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="17" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B77" s="136"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" s="126" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C78" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="119" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="127" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B79" s="119" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C79" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="51" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="127" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B80" s="119" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="127" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B80" s="119" t="s">
-        <v>1256</v>
-      </c>
       <c r="C80" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="51" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C81" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="51" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="125" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B82" s="119" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C82" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="51" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="125" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B83" s="119" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C83" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="51" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B84" s="119" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C84" s="119" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="119" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B85" s="119" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C85" s="119" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="93" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F85" s="119" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -20437,7 +20437,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -20445,2010 +20445,2010 @@
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1339</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>1340</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>1341</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C8" s="17" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>1272</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D16" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D9" s="17" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D10" s="17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D11" s="17" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D26" s="17" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E41" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>1285</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="D47" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C27" s="17" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
         <v>1286</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="B49" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C28" s="17" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>1277</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D54" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C29" s="17" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>1279</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D55" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E55" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D30" s="17" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E56" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C31" s="17" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>1282</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D60" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E60" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D32" s="17" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E61" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D33" s="17" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D34" s="17" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D35" s="17" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="17" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="17" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="17" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="17" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="17" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="17" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D65" s="17" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="17" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C66" s="17" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
         <v>1295</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="B78" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="17" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D67" s="17" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="17" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D68" s="17" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="17" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="17" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="17" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="17" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="17" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="17" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="17" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="17" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="17" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="17" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="17" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="17" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="17" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E84" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C83" s="17" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>1271</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D88" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E83" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="17" t="s">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>1267</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D84" s="17" t="s">
+      <c r="D94" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D85" s="17" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E96" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E85" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D86" s="17" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E97" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C87" s="17" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
         <v>1266</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="B98" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C88" s="17" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>1273</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D101" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E101" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="17" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="17" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" s="17" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" s="17" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="17" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C101" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E101" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E104" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D106" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E106" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D107" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E107" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B108" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E110" s="17" t="s">
         <v>1344</v>
       </c>
-      <c r="C108" s="17" t="s">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>1272</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D117" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E117" s="17" t="s">
         <v>1345</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="17" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D109" s="17" t="s">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E118" s="17" t="s">
         <v>1345</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="17" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="17" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="17" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -22465,7 +22465,7 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="50" bestFit="1" customWidth="1"/>
@@ -22477,7 +22477,7 @@
     <col min="8" max="16384" width="10.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>446</v>
       </c>
@@ -22498,8 +22498,8 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="138" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="134" t="s">
@@ -22521,8 +22521,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="137"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="138"/>
       <c r="B3" s="134"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
@@ -22540,8 +22540,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="137"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="138"/>
       <c r="B4" s="55" t="s">
         <v>433</v>
       </c>
@@ -22561,8 +22561,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="137"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="138"/>
       <c r="B5" s="134" t="s">
         <v>436</v>
       </c>
@@ -22582,8 +22582,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="138"/>
       <c r="B6" s="134"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
@@ -22599,8 +22599,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="137"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="138"/>
       <c r="B7" s="134"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
@@ -22618,8 +22618,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="137"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="138"/>
       <c r="B8" s="134"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
@@ -22637,8 +22637,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="137"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="138"/>
       <c r="B9" s="134" t="s">
         <v>748</v>
       </c>
@@ -22658,8 +22658,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="137"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="138"/>
       <c r="B10" s="134"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
@@ -22677,8 +22677,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="137"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="138"/>
       <c r="B11" s="55" t="s">
         <v>530</v>
       </c>
@@ -22698,8 +22698,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="137"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="138"/>
       <c r="B12" s="55" t="s">
         <v>438</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="134" t="s">
         <v>441</v>
       </c>
@@ -22742,7 +22742,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="134"/>
       <c r="B14" s="134"/>
       <c r="C14" s="52" t="s">
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="134"/>
       <c r="B15" s="134"/>
       <c r="C15" s="52" t="s">
@@ -22778,7 +22778,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="134"/>
       <c r="B16" s="134"/>
       <c r="C16" s="52" t="s">
@@ -22797,7 +22797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="134"/>
       <c r="B17" s="134" t="s">
         <v>450</v>
@@ -22816,7 +22816,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="134"/>
       <c r="B18" s="134"/>
       <c r="C18" s="52" t="s">
@@ -22833,7 +22833,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="134" t="s">
         <v>452</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="134"/>
       <c r="B20" s="134"/>
       <c r="C20" s="52" t="s">
@@ -22873,7 +22873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="134"/>
       <c r="B21" s="55" t="s">
         <v>456</v>
@@ -22894,7 +22894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="134" t="s">
         <v>737</v>
       </c>
@@ -22917,7 +22917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="134"/>
       <c r="B23" s="134"/>
       <c r="C23" s="52" t="s">
@@ -22936,7 +22936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="134"/>
       <c r="B24" s="134"/>
       <c r="C24" s="52" t="s">
@@ -22955,7 +22955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="134" t="s">
         <v>458</v>
       </c>
@@ -22974,7 +22974,7 @@
       <c r="F25" s="52"/>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="134"/>
       <c r="B26" s="134"/>
       <c r="C26" s="52" t="s">
@@ -22989,7 +22989,7 @@
       <c r="F26" s="52"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="134"/>
       <c r="B27" s="134"/>
       <c r="C27" s="52" t="s">
@@ -23004,7 +23004,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="134"/>
       <c r="B28" s="134"/>
       <c r="C28" s="52" t="s">
@@ -23019,7 +23019,7 @@
       <c r="F28" s="52"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="134"/>
       <c r="B29" s="134"/>
       <c r="C29" s="52" t="s">
@@ -23036,8 +23036,8 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="138" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="137" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23057,8 +23057,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="138"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="137"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23076,8 +23076,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="138"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="137"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="134" t="s">
         <v>466</v>
       </c>
@@ -23120,7 +23120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="134"/>
       <c r="B34" s="55" t="s">
         <v>468</v>
@@ -23141,7 +23141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="134" t="s">
         <v>470</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="134"/>
       <c r="B36" s="134"/>
       <c r="C36" s="52" t="s">
@@ -23183,7 +23183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
         <v>515</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
         <v>484</v>
       </c>
@@ -23225,7 +23225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="55" t="s">
         <v>487</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="134" t="s">
         <v>490</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="134"/>
       <c r="B41" s="55" t="s">
         <v>493</v>
@@ -23288,7 +23288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="134" t="s">
         <v>496</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="134"/>
       <c r="B43" s="55" t="s">
         <v>522</v>
@@ -23330,7 +23330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="134"/>
       <c r="B44" s="55" t="s">
         <v>523</v>
@@ -23349,7 +23349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="134"/>
       <c r="B45" s="55" t="s">
         <v>524</v>
@@ -23368,7 +23368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="134"/>
       <c r="B46" s="55" t="s">
         <v>525</v>
@@ -23387,7 +23387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="134"/>
       <c r="B47" s="55" t="s">
         <v>526</v>
@@ -23406,7 +23406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="134"/>
       <c r="B48" s="55" t="s">
         <v>500</v>
@@ -23427,7 +23427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="134"/>
       <c r="B49" s="55" t="s">
         <v>501</v>
@@ -23446,7 +23446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="55" t="s">
         <v>503</v>
       </c>
@@ -23469,16 +23469,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23488,6 +23478,16 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23502,7 +23502,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
@@ -23520,7 +23520,7 @@
     <col min="16" max="16" width="33.5" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>583</v>
       </c>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="S1" s="56"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>622</v>
       </c>
@@ -23596,7 +23596,7 @@
       <c r="R2" s="83"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>699</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>588</v>
@@ -23641,7 +23641,7 @@
       <c r="R3" s="82"/>
       <c r="S3" s="56"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="S4" s="56"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>624</v>
       </c>
@@ -23725,7 +23725,7 @@
       </c>
       <c r="S5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="56"/>
       <c r="C6" s="17" t="s">
         <v>666</v>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="S6" s="56"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="17" t="s">
         <v>667</v>
       </c>
@@ -23804,7 +23804,7 @@
       </c>
       <c r="S7" s="56"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
         <v>668</v>
       </c>
@@ -23842,7 +23842,7 @@
       </c>
       <c r="S8" s="56"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="17" t="s">
         <v>669</v>
       </c>
@@ -23881,7 +23881,7 @@
       <c r="R9" s="82"/>
       <c r="S9" s="56"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="17" t="s">
         <v>670</v>
       </c>
@@ -23920,9 +23920,9 @@
       <c r="R10" s="83"/>
       <c r="S10" s="56"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>671</v>
@@ -23958,7 +23958,7 @@
       </c>
       <c r="S11" s="56"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="17" t="s">
         <v>672</v>
       </c>
@@ -23996,7 +23996,7 @@
       </c>
       <c r="S12" s="56"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="17" t="s">
         <v>673</v>
       </c>
@@ -24037,7 +24037,7 @@
       <c r="R13" s="83"/>
       <c r="S13" s="56"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="17" t="s">
         <v>674</v>
       </c>
@@ -24076,7 +24076,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="56"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="17" t="s">
         <v>675</v>
       </c>
@@ -24114,7 +24114,7 @@
       </c>
       <c r="S15" s="56"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
         <v>728</v>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="S16" s="56"/>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" s="90" t="s">
@@ -24183,14 +24183,14 @@
       </c>
       <c r="S17" s="56"/>
     </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="90" t="s">
         <v>714</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>616</v>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="S18" s="56"/>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="90" t="s">
@@ -24249,7 +24249,7 @@
       </c>
       <c r="S19" s="56"/>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="90" t="s">
@@ -24282,7 +24282,7 @@
       </c>
       <c r="S20" s="56"/>
     </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="90" t="s">
@@ -24314,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="90" t="s">
@@ -24346,7 +24346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="90" t="s">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" s="90" t="s">
@@ -24412,7 +24412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="90" t="s">
@@ -24444,7 +24444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" s="133" t="s">
@@ -24476,7 +24476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" s="133"/>
@@ -24502,7 +24502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" s="133"/>
@@ -24528,7 +24528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" s="90" t="s">
@@ -24560,7 +24560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="90" t="s">
@@ -24592,7 +24592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -24618,7 +24618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -24641,7 +24641,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -24664,7 +24664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
       <c r="I34"/>
       <c r="K34" s="69" t="s">
         <v>825</v>
@@ -24683,7 +24683,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
       <c r="I35"/>
       <c r="K35" s="69" t="s">
         <v>841</v>
@@ -24702,7 +24702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K36" s="69" t="s">
         <v>842</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K37" s="69" t="s">
         <v>843</v>
       </c>
@@ -24736,80 +24736,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
       <c r="I38" s="4"/>
       <c r="K38" s="69" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
       <c r="I39" s="2"/>
       <c r="K39" s="69" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K40" s="69" t="s">
         <v>830</v>
       </c>
       <c r="P40"/>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K41" s="69" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K42" s="69" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K43" s="69" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K44" s="69" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K45" s="69" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K46" s="69" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K47" s="69" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
       <c r="K48" s="69" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" s="17" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" s="69" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" s="69" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K52" s="17" t="s">
         <v>805</v>
       </c>
@@ -24837,7 +24837,7 @@
       <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
@@ -24851,7 +24851,7 @@
     <col min="14" max="20" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
         <v>964</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -24957,7 +24957,7 @@
       <c r="V2" s="96"/>
       <c r="W2" s="103"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -25010,7 +25010,7 @@
       <c r="V3" s="96"/>
       <c r="W3" s="103"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -25049,7 +25049,7 @@
       <c r="V4" s="96"/>
       <c r="W4" s="103"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -25090,7 +25090,7 @@
       <c r="V5" s="96"/>
       <c r="W5" s="103"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -25129,7 +25129,7 @@
       <c r="V6" s="96"/>
       <c r="W6" s="103"/>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -25170,7 +25170,7 @@
       <c r="V7" s="96"/>
       <c r="W7" s="103"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -25209,7 +25209,7 @@
       <c r="V8" s="96"/>
       <c r="W8" s="103"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -25248,7 +25248,7 @@
       <c r="V9" s="96"/>
       <c r="W9" s="103"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -25287,7 +25287,7 @@
       <c r="V10" s="96"/>
       <c r="W10" s="103"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -25328,7 +25328,7 @@
       <c r="V11" s="96"/>
       <c r="W11" s="103"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="V12" s="96"/>
       <c r="W12" s="103"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -25404,7 +25404,7 @@
       <c r="V13" s="96"/>
       <c r="W13" s="103"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -25442,7 +25442,7 @@
       <c r="V14" s="96"/>
       <c r="W14" s="103"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -25481,7 +25481,7 @@
       <c r="V15" s="96"/>
       <c r="W15" s="103"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -25520,7 +25520,7 @@
       <c r="V16" s="96"/>
       <c r="W16" s="103"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -25559,7 +25559,7 @@
       <c r="V17" s="96"/>
       <c r="W17" s="103"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -25608,7 +25608,7 @@
       <c r="V18" s="96"/>
       <c r="W18" s="103"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -25647,7 +25647,7 @@
       <c r="V19" s="96"/>
       <c r="W19" s="103"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -25685,7 +25685,7 @@
       <c r="V20" s="96"/>
       <c r="W20" s="103"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -25728,7 +25728,7 @@
       <c r="V21" s="96"/>
       <c r="W21" s="103"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -25777,7 +25777,7 @@
       <c r="V22" s="96"/>
       <c r="W22" s="103"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -25820,7 +25820,7 @@
       <c r="V23" s="96"/>
       <c r="W23" s="103"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -25866,7 +25866,7 @@
       <c r="V24" s="96"/>
       <c r="W24" s="103"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -25909,7 +25909,7 @@
       <c r="V25" s="96"/>
       <c r="W25" s="103"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -25948,7 +25948,7 @@
       <c r="V26" s="96"/>
       <c r="W26" s="103"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -25991,7 +25991,7 @@
       <c r="V27" s="96"/>
       <c r="W27" s="103"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -26034,7 +26034,7 @@
       <c r="V28" s="96"/>
       <c r="W28" s="103"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -26077,7 +26077,7 @@
       <c r="V29" s="96"/>
       <c r="W29" s="103"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -26118,7 +26118,7 @@
       <c r="V30" s="96"/>
       <c r="W30" s="103"/>
     </row>
-    <row r="31" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -26159,7 +26159,7 @@
       <c r="V31" s="96"/>
       <c r="W31" s="103"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -26198,7 +26198,7 @@
       <c r="V32" s="96"/>
       <c r="W32" s="103"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -26237,7 +26237,7 @@
       <c r="V33" s="96"/>
       <c r="W33" s="103"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -26276,7 +26276,7 @@
       <c r="V34" s="96"/>
       <c r="W34" s="103"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -26319,7 +26319,7 @@
       <c r="V35" s="96"/>
       <c r="W35" s="103"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -26352,7 +26352,7 @@
       <c r="V36" s="97"/>
       <c r="W36" s="102"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -26387,12 +26387,12 @@
       <c r="V37" s="97"/>
       <c r="W37" s="102"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>970</v>
       </c>
@@ -26400,7 +26400,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>975</v>
       </c>
@@ -26408,7 +26408,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>974</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>971</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>972</v>
       </c>

--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0">
+    <comment ref="C82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1421">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1363,7 +1363,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>业务线作业</t>
@@ -1383,7 +1382,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/虎鲸业务线BI作业</t>
@@ -10659,6 +10657,24 @@
   </si>
   <si>
     <t>20360以被spark thriftserver占用</t>
+  </si>
+  <si>
+    <t>20370以被spark2.2.0 thriftserver占用</t>
+  </si>
+  <si>
+    <t>/data/logs/spark2</t>
+  </si>
+  <si>
+    <t>/data/logs/spark220</t>
+  </si>
+  <si>
+    <t>/opt/spark2</t>
+  </si>
+  <si>
+    <t>/opt/spark220</t>
+  </si>
+  <si>
+    <t>20370</t>
   </si>
 </sst>
 </file>
@@ -10671,7 +10687,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11200,7 +11215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11523,6 +11538,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -11533,10 +11551,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12090,7 +12108,7 @@
       <c r="Y1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="134" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="118" t="s">
@@ -12137,7 +12155,7 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="133"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="118" t="s">
         <v>8</v>
       </c>
@@ -12184,7 +12202,7 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="133"/>
+      <c r="A4" s="134"/>
       <c r="B4" s="118" t="s">
         <v>9</v>
       </c>
@@ -12237,7 +12255,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="118" t="s">
@@ -12286,7 +12304,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="133"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="118" t="s">
         <v>362</v>
       </c>
@@ -12333,7 +12351,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="133"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="118" t="s">
         <v>531</v>
       </c>
@@ -12380,7 +12398,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="118" t="s">
         <v>532</v>
       </c>
@@ -12427,7 +12445,7 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="133"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="118" t="s">
         <v>533</v>
       </c>
@@ -12554,7 +12572,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="134" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -12612,7 +12630,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="133"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="118" t="s">
         <v>535</v>
       </c>
@@ -12668,7 +12686,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="118" t="s">
         <v>363</v>
       </c>
@@ -12724,7 +12742,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="133"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="118" t="s">
         <v>364</v>
       </c>
@@ -12777,7 +12795,7 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
+      <c r="A15" s="134"/>
       <c r="B15" s="118" t="s">
         <v>365</v>
       </c>
@@ -12830,7 +12848,7 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="133"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="118" t="s">
         <v>366</v>
       </c>
@@ -12883,7 +12901,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="133"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="118" t="s">
         <v>367</v>
       </c>
@@ -12989,7 +13007,7 @@
       <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="134" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="118" t="s">
@@ -13026,7 +13044,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="133"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="118" t="s">
         <v>28</v>
       </c>
@@ -13061,7 +13079,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="133"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="118" t="s">
         <v>29</v>
       </c>
@@ -13096,7 +13114,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="133"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="118" t="s">
         <v>30</v>
       </c>
@@ -13131,7 +13149,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="133"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="118" t="s">
         <v>31</v>
       </c>
@@ -13166,7 +13184,7 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="133"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="118" t="s">
         <v>34</v>
       </c>
@@ -13207,7 +13225,7 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="118" t="s">
         <v>36</v>
       </c>
@@ -13246,7 +13264,7 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="133"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="118" t="s">
         <v>37</v>
       </c>
@@ -13285,7 +13303,7 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="133"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="118" t="s">
         <v>38</v>
       </c>
@@ -13320,7 +13338,7 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="118" t="s">
         <v>42</v>
       </c>
@@ -13355,7 +13373,7 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="133"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="118" t="s">
         <v>163</v>
       </c>
@@ -13390,7 +13408,7 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="133"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="118" t="s">
         <v>310</v>
       </c>
@@ -13425,7 +13443,7 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="133"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="118" t="s">
         <v>311</v>
       </c>
@@ -13460,7 +13478,7 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="133"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="118" t="s">
         <v>312</v>
       </c>
@@ -13544,13 +13562,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14705,13 +14723,13 @@
         <v>329</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>911</v>
+        <v>1418</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>1051</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>413</v>
+        <v>1416</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="30" t="s">
@@ -14730,54 +14748,46 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>136</v>
+        <v>1202</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>289</v>
+        <v>1420</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>289</v>
+        <v>1420</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>912</v>
+        <v>1419</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>414</v>
+        <v>1417</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="O24" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q24" s="109" t="s">
-        <v>632</v>
-      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="133"/>
     </row>
     <row r="25" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
@@ -14787,16 +14797,16 @@
         <v>77</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>555</v>
@@ -14828,102 +14838,100 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>138</v>
+      <c r="B26" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>139</v>
+      <c r="E26" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H26" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30" t="s">
-        <v>405</v>
+      <c r="H26" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="109" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1033</v>
+        <v>138</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>1032</v>
+        <v>322</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1031</v>
+        <v>139</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>1076</v>
+        <v>139</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>128</v>
+      <c r="H27" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30" t="s">
+        <v>405</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="Q27" s="109" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -14931,7 +14939,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>1032</v>
@@ -14940,10 +14948,10 @@
         <v>170</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>1075</v>
+        <v>1031</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>555</v>
@@ -14952,16 +14960,16 @@
         <v>987</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="20" t="s">
@@ -14982,7 +14990,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>1032</v>
@@ -14991,10 +14999,10 @@
         <v>170</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1031</v>
+        <v>1075</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>555</v>
@@ -15003,16 +15011,16 @@
         <v>987</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="20" t="s">
@@ -15033,97 +15041,99 @@
         <v>40</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>96</v>
+        <v>1035</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>143</v>
+        <v>1032</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>507</v>
+        <v>1031</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>507</v>
+        <v>1078</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>913</v>
+        <v>1038</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>415</v>
+        <v>1041</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>993</v>
+        <v>1044</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="O30" s="20" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q30" s="109" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>881</v>
+      <c r="B31" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1073</v>
+        <v>507</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>1089</v>
+        <v>1056</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>934</v>
-      </c>
-      <c r="L31" s="20"/>
+        <v>415</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>993</v>
+      </c>
       <c r="M31" s="20"/>
-      <c r="N31" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="N31" s="20"/>
       <c r="O31" s="20" t="s">
-        <v>900</v>
+        <v>336</v>
       </c>
       <c r="P31" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q31" s="109" t="s">
-        <v>1096</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -15131,7 +15141,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>144</v>
@@ -15143,7 +15153,7 @@
         <v>145</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>146</v>
+        <v>1073</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>555</v>
@@ -15152,13 +15162,13 @@
         <v>987</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -15166,13 +15176,13 @@
         <v>341</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q32" s="109" t="s">
-        <v>635</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -15180,7 +15190,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>144</v>
@@ -15192,7 +15202,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>1074</v>
+        <v>146</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>555</v>
@@ -15201,13 +15211,13 @@
         <v>987</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -15215,7 +15225,7 @@
         <v>341</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>173</v>
@@ -15228,18 +15238,20 @@
       <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>1157</v>
+      <c r="B34" s="19" t="s">
+        <v>899</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>1158</v>
+        <v>144</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="59" t="s">
-        <v>1175</v>
+      <c r="E34" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>1074</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>555</v>
@@ -15248,22 +15260,28 @@
         <v>987</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>1159</v>
+        <v>933</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>1160</v>
+        <v>1091</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>1161</v>
+        <v>936</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="30" t="s">
-        <v>1162</v>
-      </c>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="109"/>
+      <c r="N34" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="109" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
@@ -15280,7 +15298,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="59" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>555</v>
@@ -15289,13 +15307,13 @@
         <v>987</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -15321,7 +15339,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="59" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>555</v>
@@ -15330,13 +15348,13 @@
         <v>987</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -15351,20 +15369,18 @@
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>97</v>
+      <c r="B37" s="26" t="s">
+        <v>1157</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>147</v>
+        <v>1158</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>884</v>
+      <c r="E37" s="20"/>
+      <c r="F37" s="59" t="s">
+        <v>1177</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>555</v>
@@ -15373,49 +15389,41 @@
         <v>987</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>914</v>
+        <v>1164</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>1057</v>
+        <v>1166</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>994</v>
-      </c>
+        <v>1168</v>
+      </c>
+      <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="P37" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q37" s="109" t="s">
-        <v>637</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="109"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>301</v>
+        <v>97</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>300</v>
+        <v>883</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>382</v>
+        <v>884</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>555</v>
@@ -15424,27 +15432,29 @@
         <v>987</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="L38" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>994</v>
+      </c>
       <c r="M38" s="20"/>
       <c r="N38" s="30" t="s">
         <v>341</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>334</v>
+        <v>636</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q38" s="109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -15452,34 +15462,34 @@
         <v>40</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>149</v>
+        <v>98</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>301</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>404</v>
+      <c r="H39" s="20" t="s">
+        <v>987</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -15487,13 +15497,13 @@
         <v>341</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P39" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q39" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -15501,19 +15511,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>555</v>
@@ -15522,27 +15532,27 @@
         <v>404</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="30" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q40" s="109" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -15550,19 +15560,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1203</v>
+        <v>70</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1204</v>
+        <v>150</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>1205</v>
+        <v>352</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1206</v>
+        <v>383</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>555</v>
@@ -15571,84 +15581,92 @@
         <v>404</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>1207</v>
+        <v>917</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>1208</v>
+        <v>1060</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>1209</v>
+        <v>418</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="O41" s="20"/>
+      <c r="O41" s="20" t="s">
+        <v>337</v>
+      </c>
       <c r="P41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q41" s="112"/>
+      <c r="Q41" s="109" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>1236</v>
+        <v>1203</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1238</v>
+        <v>1204</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>1239</v>
+        <v>1205</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1240</v>
+        <v>1206</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>1241</v>
+        <v>1207</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>1242</v>
+        <v>1208</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>1243</v>
+        <v>1209</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
-      <c r="N42" s="30"/>
+      <c r="N42" s="30" t="s">
+        <v>349</v>
+      </c>
       <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="115"/>
+      <c r="P42" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q42" s="112"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>1134</v>
+        <v>1236</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1135</v>
+        <v>1238</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>692</v>
+        <v>1239</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>693</v>
+        <v>1240</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>555</v>
@@ -15657,74 +15675,68 @@
         <v>403</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>918</v>
+        <v>1241</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>1061</v>
+        <v>1242</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>419</v>
+        <v>1243</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
-      <c r="N43" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q43" s="109" t="s">
-        <v>694</v>
-      </c>
+      <c r="N43" s="30"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="115"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>152</v>
+        <v>1134</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1135</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>153</v>
+        <v>692</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>941</v>
+        <v>693</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>1172</v>
+      <c r="H44" s="30" t="s">
+        <v>403</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="O44" s="20"/>
+      <c r="N44" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>338</v>
+      </c>
       <c r="P44" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q44" s="109" t="s">
-        <v>51</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -15732,42 +15744,46 @@
         <v>40</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>875</v>
+        <v>51</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>941</v>
+      </c>
       <c r="G45" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>987</v>
+        <v>1172</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>890</v>
+        <v>420</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="30" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="O45" s="20"/>
       <c r="P45" s="20" t="s">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="Q45" s="109" t="s">
-        <v>641</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -15775,99 +15791,99 @@
         <v>40</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>159</v>
+        <v>875</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H46" s="30" t="s">
-        <v>1170</v>
+      <c r="H46" s="20" t="s">
+        <v>987</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>1169</v>
+        <v>1063</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>938</v>
+        <v>890</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
-      <c r="N46" s="20" t="s">
-        <v>345</v>
+      <c r="N46" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q46" s="109" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>1224</v>
+      <c r="B47" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>1226</v>
+        <v>172</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>329</v>
+      <c r="H47" s="30" t="s">
+        <v>1170</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>1225</v>
+        <v>937</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>1227</v>
+        <v>1169</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>1228</v>
+        <v>938</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O47" s="20"/>
       <c r="P47" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Q47" s="113" t="s">
-        <v>1229</v>
+      <c r="Q47" s="109" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>825</v>
+      <c r="B48" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>1224</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>171</v>
+        <v>1226</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -15878,13 +15894,13 @@
         <v>329</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>921</v>
+        <v>1225</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>977</v>
+        <v>1227</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>888</v>
+        <v>1228</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -15895,8 +15911,8 @@
       <c r="P48" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Q48" s="109" t="s">
-        <v>642</v>
+      <c r="Q48" s="113" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -15904,10 +15920,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>100</v>
+        <v>825</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>171</v>
@@ -15918,7 +15934,7 @@
         <v>555</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>921</v>
@@ -15927,7 +15943,7 @@
         <v>977</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>1097</v>
+        <v>888</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -15946,11 +15962,11 @@
       <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>46</v>
+      <c r="B50" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>171</v>
@@ -15964,13 +15980,13 @@
         <v>330</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>1098</v>
+        <v>921</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>977</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>888</v>
+        <v>1097</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -15992,8 +16008,8 @@
       <c r="B51" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>45</v>
+      <c r="C51" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>171</v>
@@ -16007,7 +16023,7 @@
         <v>330</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>921</v>
+        <v>1098</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>977</v>
@@ -16036,7 +16052,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>171</v>
@@ -16079,7 +16095,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>171</v>
@@ -16119,10 +16135,10 @@
         <v>40</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>55</v>
+        <v>101</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>171</v>
@@ -16136,13 +16152,13 @@
         <v>330</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -16154,7 +16170,7 @@
         <v>354</v>
       </c>
       <c r="Q54" s="109" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -16165,7 +16181,7 @@
         <v>887</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>171</v>
@@ -16207,8 +16223,8 @@
       <c r="B56" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>157</v>
+      <c r="C56" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>171</v>
@@ -16250,8 +16266,8 @@
       <c r="B57" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>156</v>
+      <c r="C57" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>171</v>
@@ -16293,8 +16309,8 @@
       <c r="B58" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>155</v>
+      <c r="C58" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>171</v>
@@ -16334,46 +16350,42 @@
         <v>40</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>138</v>
+        <v>887</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>139</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
       <c r="G59" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H59" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="I59" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="J59" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="K59" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30" t="s">
-        <v>405</v>
-      </c>
+      <c r="H59" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="O59" s="20"/>
       <c r="P59" s="20" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="Q59" s="109" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -16384,7 +16396,7 @@
         <v>138</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>170</v>
@@ -16431,7 +16443,7 @@
         <v>138</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>170</v>
@@ -16478,7 +16490,7 @@
         <v>138</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>170</v>
@@ -16525,7 +16537,7 @@
         <v>138</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>536</v>
+        <v>370</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>170</v>
@@ -16572,7 +16584,7 @@
         <v>138</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>170</v>
@@ -16611,102 +16623,102 @@
         <v>658</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>161</v>
+      <c r="B65" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>552</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>332</v>
+      <c r="E65" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H65" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="J65" s="20" t="s">
-        <v>1064</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>995</v>
-      </c>
-      <c r="M65" s="20"/>
-      <c r="N65" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>649</v>
+      <c r="H65" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="K65" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30" t="s">
+        <v>405</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="Q65" s="109" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>863</v>
+        <v>106</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>864</v>
+      <c r="E66" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>856</v>
+        <v>987</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="L66" s="20"/>
+        <v>424</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>995</v>
+      </c>
       <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
+      <c r="N66" s="30" t="s">
+        <v>341</v>
+      </c>
       <c r="O66" s="20" t="s">
-        <v>854</v>
+        <v>649</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q66" s="109" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16714,41 +16726,47 @@
         <v>40</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>1192</v>
+        <v>689</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>1193</v>
+        <v>863</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="59" t="s">
-        <v>1198</v>
+      <c r="E67" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>864</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>1194</v>
+        <v>856</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>1235</v>
+        <v>924</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>1200</v>
+        <v>1065</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>1201</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="109"/>
+      <c r="O67" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="P67" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67" s="109" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
@@ -16758,14 +16776,14 @@
         <v>1192</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="59" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>555</v>
@@ -16774,7 +16792,7 @@
         <v>1194</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>1195</v>
+        <v>1235</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>1200</v>
@@ -16791,71 +16809,65 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="109"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>103</v>
+        <v>1192</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>317</v>
+        <v>1191</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>380</v>
+      <c r="E69" s="18"/>
+      <c r="F69" s="59" t="s">
+        <v>1197</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>856</v>
+        <v>1194</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>924</v>
+        <v>1195</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>1065</v>
+        <v>1200</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="L69" s="20"/>
+        <v>1196</v>
+      </c>
+      <c r="L69" s="20" t="s">
+        <v>1201</v>
+      </c>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
-      <c r="O69" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="P69" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q69" s="109" t="s">
-        <v>659</v>
-      </c>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="109"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>862</v>
+      <c r="B70" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="F70" s="59" t="s">
-        <v>864</v>
+        <v>160</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>555</v>
@@ -16874,7 +16886,7 @@
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
-      <c r="N70" s="30"/>
+      <c r="N70" s="20"/>
       <c r="O70" s="20" t="s">
         <v>854</v>
       </c>
@@ -16882,74 +16894,74 @@
         <v>173</v>
       </c>
       <c r="Q70" s="109" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>886</v>
+      <c r="B71" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>862</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>1143</v>
+        <v>864</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="I71" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="J71" s="26" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K71" s="26" t="s">
-        <v>421</v>
+        <v>856</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="J71" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>855</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
-      <c r="N71" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O71" s="20"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="P71" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q71" s="109" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>109</v>
+      <c r="B72" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>306</v>
+        <v>886</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>307</v>
+        <v>885</v>
       </c>
       <c r="F72" s="59" t="s">
-        <v>942</v>
+        <v>1143</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>555</v>
@@ -16957,14 +16969,14 @@
       <c r="H72" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="J72" s="20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>422</v>
+      <c r="I72" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>421</v>
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
@@ -16976,24 +16988,28 @@
         <v>173</v>
       </c>
       <c r="Q72" s="109" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="20" t="s">
-        <v>556</v>
+      <c r="B73" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>660</v>
+        <v>306</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="59"/>
+        <v>170</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>942</v>
+      </c>
       <c r="G73" s="26" t="s">
         <v>555</v>
       </c>
@@ -17001,23 +17017,25 @@
         <v>987</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>979</v>
+        <v>1067</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>939</v>
+        <v>422</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
+      <c r="N73" s="30" t="s">
+        <v>341</v>
+      </c>
       <c r="O73" s="20"/>
       <c r="P73" s="20" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="Q73" s="109" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -17025,13 +17043,13 @@
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>105</v>
+        <v>556</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>105</v>
+        <v>660</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="59"/>
@@ -17042,46 +17060,40 @@
         <v>987</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>1068</v>
+        <v>979</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>423</v>
+        <v>939</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
-      <c r="O74" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="P74" s="30" t="s">
-        <v>313</v>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="Q74" s="109" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>166</v>
+      <c r="B75" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="78" t="s">
-        <v>168</v>
-      </c>
+      <c r="E75" s="20"/>
+      <c r="F75" s="59"/>
       <c r="G75" s="26" t="s">
         <v>555</v>
       </c>
@@ -17089,49 +17101,45 @@
         <v>987</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="L75" s="20" t="s">
-        <v>976</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="L75" s="20"/>
       <c r="M75" s="20"/>
-      <c r="N75" s="30" t="s">
-        <v>341</v>
-      </c>
+      <c r="N75" s="20"/>
       <c r="O75" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="P75" s="20" t="s">
-        <v>173</v>
+        <v>339</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q75" s="109" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>1030</v>
+      <c r="B76" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="20" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F76" s="59" t="s">
-        <v>1029</v>
+      <c r="E76" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="78" t="s">
+        <v>168</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>555</v>
@@ -17140,25 +17148,29 @@
         <v>987</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>1026</v>
+        <v>910</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="L76" s="20"/>
+        <v>412</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>976</v>
+      </c>
       <c r="M76" s="20"/>
       <c r="N76" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="O76" s="20"/>
+        <v>341</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="P76" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q76" s="109" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -17166,19 +17178,19 @@
         <v>39</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>162</v>
+        <v>107</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>1030</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>299</v>
+        <v>1028</v>
       </c>
       <c r="F77" s="59" t="s">
-        <v>1218</v>
+        <v>1029</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>555</v>
@@ -17187,44 +17199,46 @@
         <v>987</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1219</v>
+        <v>1026</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>1220</v>
+        <v>1069</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
-      <c r="N77" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="O77" s="20" t="s">
-        <v>340</v>
-      </c>
+      <c r="N77" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="O77" s="20"/>
       <c r="P77" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q77" s="109" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>653</v>
+      <c r="B78" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="59"/>
+      <c r="E78" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="59" t="s">
+        <v>1218</v>
+      </c>
       <c r="G78" s="26" t="s">
         <v>555</v>
       </c>
@@ -17232,46 +17246,44 @@
         <v>987</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>928</v>
+        <v>1219</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>1070</v>
+        <v>1220</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
-      <c r="N78" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O78" s="20"/>
-      <c r="P78" s="30" t="s">
-        <v>313</v>
+      <c r="N78" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="O78" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="P78" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Q78" s="109" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>278</v>
+      <c r="B79" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E79" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="F79" s="59" t="s">
-        <v>943</v>
-      </c>
+      <c r="E79" s="20"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="26" t="s">
         <v>555</v>
       </c>
@@ -17279,22 +17291,22 @@
         <v>987</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
-      <c r="N79" s="20" t="s">
-        <v>348</v>
+      <c r="N79" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="O79" s="20"/>
-      <c r="P79" s="20" t="s">
-        <v>173</v>
+      <c r="P79" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q79" s="109" t="s">
         <v>654</v>
@@ -17304,90 +17316,90 @@
       <c r="A80" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>314</v>
+      <c r="B80" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>655</v>
+        <v>278</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="79"/>
+      <c r="E80" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>943</v>
+      </c>
       <c r="G80" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="I80" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>1072</v>
+      <c r="I80" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="J80" s="20" t="s">
+        <v>1071</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
-      <c r="N80" s="30" t="s">
-        <v>341</v>
+      <c r="N80" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="O80" s="20"/>
-      <c r="P80" s="30" t="s">
-        <v>313</v>
+      <c r="P80" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Q80" s="109" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>138</v>
+      <c r="B81" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>358</v>
+        <v>655</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F81" s="78" t="s">
-        <v>139</v>
-      </c>
+      <c r="E81" s="27"/>
+      <c r="F81" s="79"/>
       <c r="G81" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="J81" s="20" t="s">
-        <v>406</v>
+        <v>987</v>
+      </c>
+      <c r="I81" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>1072</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="P81" s="20" t="s">
-        <v>173</v>
+      <c r="N81" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="O81" s="20"/>
+      <c r="P81" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q81" s="109" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -17397,8 +17409,8 @@
       <c r="B82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>319</v>
+      <c r="C82" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>170</v>
@@ -17436,8 +17448,6 @@
       <c r="Q82" s="109" t="s">
         <v>658</v>
       </c>
-      <c r="R82" s="23"/>
-      <c r="S82" s="23"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
@@ -17447,7 +17457,7 @@
         <v>138</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>170</v>
@@ -17496,7 +17506,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>170</v>
@@ -17504,7 +17514,7 @@
       <c r="E84" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="78" t="s">
         <v>139</v>
       </c>
       <c r="G84" s="26" t="s">
@@ -17545,7 +17555,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>170</v>
@@ -17594,7 +17604,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>170</v>
@@ -17643,7 +17653,7 @@
         <v>138</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>170</v>
@@ -17692,7 +17702,7 @@
         <v>138</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>170</v>
@@ -17740,8 +17750,8 @@
       <c r="B89" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>318</v>
+      <c r="C89" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>170</v>
@@ -17782,74 +17792,88 @@
       <c r="R89" s="23"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="60" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="J90" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="P90" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q90" s="109" t="s">
+        <v>658</v>
+      </c>
+      <c r="R90" s="23"/>
+      <c r="S90" s="23"/>
+    </row>
+    <row r="91" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="C90" s="61" t="s">
+      <c r="C91" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="D90" s="62" t="s">
+      <c r="D91" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="64" t="s">
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="H90" s="62"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
-      <c r="K90" s="63"/>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63"/>
-      <c r="N90" s="63" t="s">
+      <c r="H91" s="62"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="O90" s="63"/>
-      <c r="P90" s="62" t="s">
+      <c r="O91" s="63"/>
+      <c r="P91" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="Q90" s="65" t="s">
+      <c r="Q91" s="65" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G91" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="N91" s="30" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -17857,16 +17881,16 @@
         <v>40</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>555</v>
@@ -17875,25 +17899,16 @@
         <v>989</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>1395</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>1397</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -17901,34 +17916,43 @@
         <v>40</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1380</v>
+        <v>1388</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1383</v>
+        <v>170</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>1170</v>
+        <v>989</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1387</v>
+        <v>1394</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>1393</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>1379</v>
+        <v>1395</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -17936,34 +17960,34 @@
         <v>40</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1402</v>
+        <v>1381</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>1383</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H94" s="20" t="s">
-        <v>987</v>
+      <c r="H94" s="1" t="s">
+        <v>1170</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1404</v>
+        <v>1385</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1405</v>
+        <v>1386</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1406</v>
+        <v>1387</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>1407</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -17971,13 +17995,16 @@
         <v>40</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1408</v>
+        <v>1400</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1401</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>555</v>
@@ -17986,21 +18013,58 @@
         <v>987</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="N95" s="30" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="N95" s="30" t="s">
+      <c r="N96" s="30" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E96" s="1" t="s">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
         <v>1414</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -19868,13 +19932,13 @@
       <c r="A38" s="123" t="s">
         <v>1327</v>
       </c>
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="136" t="s">
         <v>1329</v>
       </c>
       <c r="C38" s="119"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="134" t="s">
+      <c r="F38" s="135" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -19882,227 +19946,227 @@
       <c r="A39" s="123" t="s">
         <v>1262</v>
       </c>
-      <c r="B39" s="135"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="119"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="134"/>
+      <c r="F39" s="135"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="123" t="s">
         <v>1263</v>
       </c>
-      <c r="B40" s="135"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="119"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="134"/>
+      <c r="F40" s="135"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="123" t="s">
         <v>1335</v>
       </c>
-      <c r="B41" s="135"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="119"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="134"/>
+      <c r="F41" s="135"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="123" t="s">
         <v>1303</v>
       </c>
-      <c r="B42" s="135"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="119"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="134"/>
+      <c r="F42" s="135"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="123" t="s">
         <v>1311</v>
       </c>
-      <c r="B43" s="135"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="119"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="134"/>
+      <c r="F43" s="135"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="124" t="s">
         <v>1336</v>
       </c>
-      <c r="B44" s="135"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="119"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="134"/>
+      <c r="F44" s="135"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="124" t="s">
         <v>1305</v>
       </c>
-      <c r="B45" s="135"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="119"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="134"/>
+      <c r="F45" s="135"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="124" t="s">
         <v>1313</v>
       </c>
-      <c r="B46" s="135"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="119"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="134"/>
+      <c r="F46" s="135"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="124" t="s">
         <v>1318</v>
       </c>
-      <c r="B47" s="135"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="119"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="134"/>
+      <c r="F47" s="135"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="124" t="s">
         <v>1291</v>
       </c>
-      <c r="B48" s="135"/>
+      <c r="B48" s="136"/>
       <c r="C48" s="119"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="134"/>
+      <c r="F48" s="135"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="124" t="s">
         <v>1306</v>
       </c>
-      <c r="B49" s="135"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="119"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="134"/>
+      <c r="F49" s="135"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="124" t="s">
         <v>1314</v>
       </c>
-      <c r="B50" s="135"/>
+      <c r="B50" s="136"/>
       <c r="C50" s="119"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="134"/>
+      <c r="F50" s="135"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="124" t="s">
         <v>1295</v>
       </c>
-      <c r="B51" s="135"/>
+      <c r="B51" s="136"/>
       <c r="C51" s="119"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="134"/>
+      <c r="F51" s="135"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="124" t="s">
         <v>1307</v>
       </c>
-      <c r="B52" s="135"/>
+      <c r="B52" s="136"/>
       <c r="C52" s="119"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="134"/>
+      <c r="F52" s="135"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
         <v>1315</v>
       </c>
-      <c r="B53" s="135"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="119"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="134"/>
+      <c r="F53" s="135"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="135"/>
+      <c r="B54" s="136"/>
       <c r="C54" s="119"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="134"/>
+      <c r="F54" s="135"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="124" t="s">
         <v>1265</v>
       </c>
-      <c r="B55" s="135"/>
+      <c r="B55" s="136"/>
       <c r="C55" s="119"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="134"/>
+      <c r="F55" s="135"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="124" t="s">
         <v>1298</v>
       </c>
-      <c r="B56" s="135"/>
+      <c r="B56" s="136"/>
       <c r="C56" s="119"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="134"/>
+      <c r="F56" s="135"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="s">
         <v>1316</v>
       </c>
-      <c r="B57" s="135"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="119"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="134"/>
+      <c r="F57" s="135"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="124" t="s">
         <v>1266</v>
       </c>
-      <c r="B58" s="135"/>
+      <c r="B58" s="136"/>
       <c r="C58" s="119"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="134"/>
+      <c r="F58" s="135"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="124" t="s">
         <v>1301</v>
       </c>
-      <c r="B59" s="135"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="119"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="134"/>
+      <c r="F59" s="135"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="s">
         <v>1310</v>
       </c>
-      <c r="B60" s="135"/>
+      <c r="B60" s="136"/>
       <c r="C60" s="119"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="134"/>
+      <c r="F60" s="135"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="135"/>
+      <c r="B61" s="136"/>
       <c r="C61" s="119"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
@@ -20128,13 +20192,13 @@
       <c r="A63" s="125" t="s">
         <v>1278</v>
       </c>
-      <c r="B63" s="136" t="s">
+      <c r="B63" s="137" t="s">
         <v>1330</v>
       </c>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="134" t="s">
+      <c r="F63" s="135" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -20142,71 +20206,71 @@
       <c r="A64" s="125" t="s">
         <v>1286</v>
       </c>
-      <c r="B64" s="136"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="119"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="134"/>
+      <c r="F64" s="135"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="125" t="s">
         <v>1274</v>
       </c>
-      <c r="B65" s="136"/>
+      <c r="B65" s="137"/>
       <c r="C65" s="119"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="134"/>
+      <c r="F65" s="135"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="125" t="s">
         <v>1299</v>
       </c>
-      <c r="B66" s="136"/>
+      <c r="B66" s="137"/>
       <c r="C66" s="119"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="134"/>
+      <c r="F66" s="135"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="125" t="s">
         <v>1308</v>
       </c>
-      <c r="B67" s="136"/>
+      <c r="B67" s="137"/>
       <c r="C67" s="119"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="134"/>
+      <c r="F67" s="135"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="125" t="s">
         <v>1302</v>
       </c>
-      <c r="B68" s="136"/>
+      <c r="B68" s="137"/>
       <c r="C68" s="119"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="134"/>
+      <c r="F68" s="135"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="136"/>
+      <c r="B69" s="137"/>
       <c r="C69" s="119"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="134"/>
+      <c r="F69" s="135"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="125" t="s">
         <v>1292</v>
       </c>
-      <c r="B70" s="136"/>
+      <c r="B70" s="137"/>
       <c r="C70" s="119"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="134" t="s">
+      <c r="F70" s="135" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -20214,57 +20278,57 @@
       <c r="A71" s="125" t="s">
         <v>1268</v>
       </c>
-      <c r="B71" s="136"/>
+      <c r="B71" s="137"/>
       <c r="C71" s="119"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="134"/>
+      <c r="F71" s="135"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="125" t="s">
         <v>1300</v>
       </c>
-      <c r="B72" s="136"/>
+      <c r="B72" s="137"/>
       <c r="C72" s="119"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="134"/>
+      <c r="F72" s="135"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="125" t="s">
         <v>1304</v>
       </c>
-      <c r="B73" s="136"/>
+      <c r="B73" s="137"/>
       <c r="C73" s="119"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="134"/>
+      <c r="F73" s="135"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="B74" s="136"/>
+      <c r="B74" s="137"/>
       <c r="C74" s="119"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="134"/>
+      <c r="F74" s="135"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="125" t="s">
         <v>1312</v>
       </c>
-      <c r="B75" s="136"/>
+      <c r="B75" s="137"/>
       <c r="C75" s="119"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="134"/>
+      <c r="F75" s="135"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="136"/>
+      <c r="B76" s="137"/>
       <c r="C76" s="119"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
@@ -20276,7 +20340,7 @@
       <c r="A77" s="17" t="s">
         <v>1317</v>
       </c>
-      <c r="B77" s="136"/>
+      <c r="B77" s="137"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -22502,7 +22566,7 @@
       <c r="A2" s="138" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="135" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -22523,7 +22587,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="138"/>
-      <c r="B3" s="134"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
       </c>
@@ -22563,7 +22627,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="138"/>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="135" t="s">
         <v>436</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -22584,7 +22648,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="138"/>
-      <c r="B6" s="134"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
       </c>
@@ -22601,7 +22665,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="138"/>
-      <c r="B7" s="134"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
       </c>
@@ -22620,7 +22684,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="138"/>
-      <c r="B8" s="134"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
       </c>
@@ -22639,7 +22703,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="138"/>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="135" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -22660,7 +22724,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="138"/>
-      <c r="B10" s="134"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
       </c>
@@ -22720,10 +22784,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="135" t="s">
         <v>441</v>
       </c>
-      <c r="B13" s="134" t="s">
+      <c r="B13" s="135" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -22743,8 +22807,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="134"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="135"/>
       <c r="C14" s="52" t="s">
         <v>445</v>
       </c>
@@ -22762,8 +22826,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="135"/>
       <c r="C15" s="52" t="s">
         <v>479</v>
       </c>
@@ -22779,8 +22843,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="135"/>
       <c r="C16" s="52" t="s">
         <v>746</v>
       </c>
@@ -22798,8 +22862,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
-      <c r="B17" s="134" t="s">
+      <c r="A17" s="135"/>
+      <c r="B17" s="135" t="s">
         <v>450</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -22817,8 +22881,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="52" t="s">
         <v>451</v>
       </c>
@@ -22834,10 +22898,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="135" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="135" t="s">
         <v>453</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -22857,8 +22921,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="135"/>
       <c r="C20" s="52" t="s">
         <v>455</v>
       </c>
@@ -22874,7 +22938,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="55" t="s">
         <v>456</v>
       </c>
@@ -22895,10 +22959,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="135" t="s">
         <v>737</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="135" t="s">
         <v>754</v>
       </c>
       <c r="C22" s="55" t="s">
@@ -22918,8 +22982,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="52" t="s">
         <v>740</v>
       </c>
@@ -22937,8 +23001,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="52" t="s">
         <v>752</v>
       </c>
@@ -22956,10 +23020,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="135" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="135" t="s">
         <v>459</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -22975,8 +23039,8 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="52" t="s">
         <v>460</v>
       </c>
@@ -22990,8 +23054,8 @@
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="52" t="s">
         <v>461</v>
       </c>
@@ -23005,8 +23069,8 @@
       <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="52" t="s">
         <v>462</v>
       </c>
@@ -23020,8 +23084,8 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="134"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="52" t="s">
         <v>464</v>
       </c>
@@ -23037,7 +23101,7 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="137" t="s">
+      <c r="A30" s="139" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23058,7 +23122,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="137"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23077,7 +23141,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="137"/>
+      <c r="A32" s="139"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23098,7 +23162,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="135" t="s">
         <v>466</v>
       </c>
       <c r="B33" s="55" t="s">
@@ -23121,7 +23185,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="55" t="s">
         <v>468</v>
       </c>
@@ -23142,10 +23206,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="135" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="135" t="s">
         <v>471</v>
       </c>
       <c r="C35" s="52" t="s">
@@ -23165,8 +23229,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="52" t="s">
         <v>473</v>
       </c>
@@ -23249,7 +23313,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="135" t="s">
         <v>490</v>
       </c>
       <c r="B40" s="55" t="s">
@@ -23270,7 +23334,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="134"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="55" t="s">
         <v>493</v>
       </c>
@@ -23289,7 +23353,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="135" t="s">
         <v>496</v>
       </c>
       <c r="B42" s="55" t="s">
@@ -23312,7 +23376,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="134"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="55" t="s">
         <v>522</v>
       </c>
@@ -23331,7 +23395,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="134"/>
+      <c r="A44" s="135"/>
       <c r="B44" s="55" t="s">
         <v>523</v>
       </c>
@@ -23350,7 +23414,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="55" t="s">
         <v>524</v>
       </c>
@@ -23369,7 +23433,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="134"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="55" t="s">
         <v>525</v>
       </c>
@@ -23388,7 +23452,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="134"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="55" t="s">
         <v>526</v>
       </c>
@@ -23407,7 +23471,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="134"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="55" t="s">
         <v>500</v>
       </c>
@@ -23428,7 +23492,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="134"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="55" t="s">
         <v>501</v>
       </c>
@@ -23469,6 +23533,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23478,16 +23552,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23529,11 +23593,11 @@
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="143" t="s">
         <v>767</v>
       </c>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
       <c r="K1" s="70" t="s">
         <v>770</v>
       </c>
@@ -24447,16 +24511,16 @@
     <row r="26" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="133" t="s">
+      <c r="F26" s="134" t="s">
         <v>722</v>
       </c>
-      <c r="G26" s="133" t="s">
+      <c r="G26" s="134" t="s">
         <v>1023</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="I26" s="139" t="s">
+      <c r="I26" s="140" t="s">
         <v>763</v>
       </c>
       <c r="K26" s="69" t="s">
@@ -24479,12 +24543,12 @@
     <row r="27" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="I27" s="140"/>
+      <c r="I27" s="141"/>
       <c r="K27" s="69" t="s">
         <v>850</v>
       </c>
@@ -24505,12 +24569,12 @@
     <row r="28" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
       <c r="H28" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="I28" s="141"/>
+      <c r="I28" s="142"/>
       <c r="K28" s="69" t="s">
         <v>790</v>
       </c>

--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="应用规划" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C82" authorId="0">
+    <comment ref="C81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="C37" authorId="0">
+    <comment ref="C38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="1423">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10659,22 +10659,32 @@
     <t>20360以被spark thriftserver占用</t>
   </si>
   <si>
-    <t>20370以被spark2.2.0 thriftserver占用</t>
-  </si>
-  <si>
     <t>/data/logs/spark2</t>
   </si>
   <si>
-    <t>/data/logs/spark220</t>
-  </si>
-  <si>
     <t>/opt/spark2</t>
   </si>
   <si>
-    <t>/opt/spark220</t>
-  </si>
-  <si>
-    <t>20370</t>
+    <t>hiveserver2.whaleybigdata.com</t>
+  </si>
+  <si>
+    <t>HiveServer2</t>
+  </si>
+  <si>
+    <t>bigdata-cmpt-128-1:10000
+bigdata-cmpt-128-13:10000
+bigdata-cmpt-128-25:10000</t>
+  </si>
+  <si>
+    <t>sparkthriftserver.whaleybigdata.com</t>
+  </si>
+  <si>
+    <t>Spark ThriftServer</t>
+  </si>
+  <si>
+    <t>bigdata-cmpt-128-1:20360
+bigdata-cmpt-128-13:20360
+bigdata-cmpt-128-25:20360</t>
   </si>
 </sst>
 </file>
@@ -11535,8 +11545,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11551,10 +11561,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13562,13 +13572,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14723,13 +14733,13 @@
         <v>329</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>1051</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="30" t="s">
@@ -14748,46 +14758,54 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>1202</v>
+        <v>136</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1420</v>
+        <v>289</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>1420</v>
+        <v>289</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>1419</v>
+        <v>912</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>1417</v>
+        <v>414</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="133"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q24" s="109" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
@@ -14797,16 +14815,16 @@
         <v>77</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>555</v>
@@ -14838,100 +14856,102 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>77</v>
+      <c r="B26" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>290</v>
+      <c r="E26" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>912</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>1052</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>333</v>
+      <c r="H26" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30" t="s">
+        <v>405</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>173</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="109" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>138</v>
+        <v>1033</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>322</v>
+        <v>1032</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>139</v>
+        <v>1031</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>139</v>
+        <v>1076</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30" t="s">
-        <v>405</v>
+      <c r="H27" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="Q27" s="109" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -14939,7 +14959,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>1032</v>
@@ -14948,10 +14968,10 @@
         <v>170</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>1031</v>
+        <v>1075</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>555</v>
@@ -14960,16 +14980,16 @@
         <v>987</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="20" t="s">
@@ -14990,7 +15010,7 @@
         <v>40</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>1032</v>
@@ -14999,10 +15019,10 @@
         <v>170</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1075</v>
+        <v>1031</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>555</v>
@@ -15011,16 +15031,16 @@
         <v>987</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="20" t="s">
@@ -15041,99 +15061,97 @@
         <v>40</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1035</v>
+        <v>96</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>1032</v>
+        <v>143</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>1031</v>
+        <v>507</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1078</v>
+        <v>507</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>1038</v>
+        <v>913</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>1041</v>
+        <v>415</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>1044</v>
+        <v>993</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="20" t="s">
-        <v>341</v>
-      </c>
+      <c r="N30" s="20"/>
       <c r="O30" s="20" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q30" s="109" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>96</v>
+      <c r="B31" s="19" t="s">
+        <v>881</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>507</v>
+        <v>145</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>507</v>
+        <v>1073</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>993</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="L31" s="20"/>
       <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="N31" s="20" t="s">
+        <v>341</v>
+      </c>
       <c r="O31" s="20" t="s">
-        <v>336</v>
+        <v>900</v>
       </c>
       <c r="P31" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q31" s="109" t="s">
-        <v>634</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -15141,7 +15159,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>144</v>
@@ -15153,7 +15171,7 @@
         <v>145</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1073</v>
+        <v>146</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>555</v>
@@ -15162,13 +15180,13 @@
         <v>987</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -15176,13 +15194,13 @@
         <v>341</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q32" s="109" t="s">
-        <v>1096</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -15190,7 +15208,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>144</v>
@@ -15202,7 +15220,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>146</v>
+        <v>1074</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>555</v>
@@ -15211,13 +15229,13 @@
         <v>987</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -15225,7 +15243,7 @@
         <v>341</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P33" s="20" t="s">
         <v>173</v>
@@ -15238,20 +15256,18 @@
       <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>899</v>
+      <c r="B34" s="26" t="s">
+        <v>1157</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>144</v>
+        <v>1158</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>1074</v>
+      <c r="E34" s="20"/>
+      <c r="F34" s="59" t="s">
+        <v>1175</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>555</v>
@@ -15260,28 +15276,22 @@
         <v>987</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>933</v>
+        <v>1159</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>1091</v>
+        <v>1160</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>936</v>
+        <v>1161</v>
       </c>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q34" s="109" t="s">
-        <v>635</v>
-      </c>
+      <c r="N34" s="30" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="109"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
@@ -15298,7 +15308,7 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="59" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>555</v>
@@ -15307,13 +15317,13 @@
         <v>987</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -15339,7 +15349,7 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="59" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>555</v>
@@ -15348,13 +15358,13 @@
         <v>987</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -15369,18 +15379,20 @@
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>1157</v>
+      <c r="B37" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1158</v>
+        <v>147</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="59" t="s">
-        <v>1177</v>
+      <c r="E37" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>884</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>555</v>
@@ -15389,41 +15401,49 @@
         <v>987</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>1164</v>
+        <v>914</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>1166</v>
+        <v>1057</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L37" s="20"/>
+        <v>903</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>994</v>
+      </c>
       <c r="M37" s="20"/>
       <c r="N37" s="30" t="s">
-        <v>1162</v>
-      </c>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="109"/>
+        <v>341</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q37" s="109" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>147</v>
+        <v>98</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>301</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>883</v>
+        <v>300</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>884</v>
+        <v>382</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>555</v>
@@ -15432,29 +15452,27 @@
         <v>987</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>903</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>994</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="30" t="s">
         <v>341</v>
       </c>
       <c r="O38" s="20" t="s">
-        <v>636</v>
+        <v>334</v>
       </c>
       <c r="P38" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q38" s="109" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -15462,34 +15480,34 @@
         <v>40</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>301</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>987</v>
+      <c r="H39" s="30" t="s">
+        <v>404</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -15497,13 +15515,13 @@
         <v>341</v>
       </c>
       <c r="O39" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P39" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q39" s="109" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -15511,19 +15529,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>555</v>
@@ -15532,27 +15550,27 @@
         <v>404</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="30" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="O40" s="20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P40" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q40" s="109" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -15560,19 +15578,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>70</v>
+        <v>1203</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>150</v>
+        <v>1204</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>352</v>
+        <v>1205</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>383</v>
+        <v>1206</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>555</v>
@@ -15581,92 +15599,84 @@
         <v>404</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>917</v>
+        <v>1207</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>1060</v>
+        <v>1208</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>418</v>
+        <v>1209</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="O41" s="20" t="s">
-        <v>337</v>
-      </c>
+      <c r="O41" s="20"/>
       <c r="P41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q41" s="109" t="s">
-        <v>640</v>
-      </c>
+      <c r="Q41" s="112"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>1203</v>
+        <v>1236</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>1204</v>
+        <v>1238</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>1205</v>
+        <v>1239</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1206</v>
+        <v>1240</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>1207</v>
+        <v>1241</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>1208</v>
+        <v>1242</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>1209</v>
+        <v>1243</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
-      <c r="N42" s="30" t="s">
-        <v>349</v>
-      </c>
+      <c r="N42" s="30"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q42" s="112"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="115"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>1236</v>
+        <v>1134</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>1238</v>
+        <v>1135</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>1239</v>
+        <v>692</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>1240</v>
+        <v>693</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>555</v>
@@ -15675,68 +15685,74 @@
         <v>403</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>1241</v>
+        <v>918</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>1242</v>
+        <v>1061</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>1243</v>
+        <v>419</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="115"/>
+      <c r="N43" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q43" s="109" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>1135</v>
+        <v>51</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>692</v>
+        <v>153</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>693</v>
+        <v>941</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H44" s="30" t="s">
-        <v>403</v>
+      <c r="H44" s="20" t="s">
+        <v>1172</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
-      <c r="N44" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>338</v>
-      </c>
+      <c r="N44" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" s="20"/>
       <c r="P44" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q44" s="109" t="s">
-        <v>694</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -15744,46 +15760,42 @@
         <v>40</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>152</v>
+        <v>99</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>875</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>941</v>
-      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
       <c r="G45" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>1172</v>
+        <v>987</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>420</v>
+        <v>890</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="30" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="O45" s="20"/>
       <c r="P45" s="20" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="Q45" s="109" t="s">
-        <v>51</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -15791,99 +15803,99 @@
         <v>40</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>875</v>
+        <v>159</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>987</v>
+      <c r="H46" s="30" t="s">
+        <v>1170</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>1063</v>
+        <v>1169</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
-      <c r="N46" s="30" t="s">
-        <v>341</v>
+      <c r="N46" s="20" t="s">
+        <v>345</v>
       </c>
       <c r="O46" s="20"/>
       <c r="P46" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q46" s="109" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>159</v>
+      <c r="B47" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>1224</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>172</v>
+        <v>1226</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H47" s="30" t="s">
-        <v>1170</v>
+      <c r="H47" s="20" t="s">
+        <v>329</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>937</v>
+        <v>1225</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>1169</v>
+        <v>1227</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>938</v>
+        <v>1228</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O47" s="20"/>
       <c r="P47" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Q47" s="109" t="s">
-        <v>643</v>
+      <c r="Q47" s="113" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>1224</v>
+      <c r="B48" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>825</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>1226</v>
+        <v>171</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -15894,13 +15906,13 @@
         <v>329</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>1225</v>
+        <v>921</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>1227</v>
+        <v>977</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>1228</v>
+        <v>888</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -15911,8 +15923,8 @@
       <c r="P48" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="Q48" s="113" t="s">
-        <v>1229</v>
+      <c r="Q48" s="109" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -15920,10 +15932,10 @@
         <v>40</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>825</v>
+        <v>100</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>171</v>
@@ -15934,7 +15946,7 @@
         <v>555</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>921</v>
@@ -15943,7 +15955,7 @@
         <v>977</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>888</v>
+        <v>1097</v>
       </c>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -15962,11 +15974,11 @@
       <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>100</v>
+      <c r="B50" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>171</v>
@@ -15980,13 +15992,13 @@
         <v>330</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>921</v>
+        <v>1098</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>977</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>1097</v>
+        <v>888</v>
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -16008,8 +16020,8 @@
       <c r="B51" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>46</v>
+      <c r="C51" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>171</v>
@@ -16023,7 +16035,7 @@
         <v>330</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>1098</v>
+        <v>921</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>977</v>
@@ -16052,7 +16064,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>171</v>
@@ -16095,7 +16107,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>171</v>
@@ -16135,10 +16147,10 @@
         <v>40</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>50</v>
+        <v>887</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>171</v>
@@ -16152,13 +16164,13 @@
         <v>330</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -16170,7 +16182,7 @@
         <v>354</v>
       </c>
       <c r="Q54" s="109" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -16181,7 +16193,7 @@
         <v>887</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>171</v>
@@ -16223,8 +16235,8 @@
       <c r="B56" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>56</v>
+      <c r="C56" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>171</v>
@@ -16266,8 +16278,8 @@
       <c r="B57" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>157</v>
+      <c r="C57" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>171</v>
@@ -16309,8 +16321,8 @@
       <c r="B58" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>156</v>
+      <c r="C58" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>171</v>
@@ -16350,42 +16362,46 @@
         <v>40</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>887</v>
+        <v>138</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="G59" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H59" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>922</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>978</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="O59" s="20"/>
+      <c r="H59" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30" t="s">
+        <v>405</v>
+      </c>
       <c r="P59" s="20" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="Q59" s="109" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -16396,7 +16412,7 @@
         <v>138</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>170</v>
@@ -16443,7 +16459,7 @@
         <v>138</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>170</v>
@@ -16490,7 +16506,7 @@
         <v>138</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>170</v>
@@ -16537,7 +16553,7 @@
         <v>138</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>370</v>
+        <v>536</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>170</v>
@@ -16584,7 +16600,7 @@
         <v>138</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>170</v>
@@ -16623,102 +16639,102 @@
         <v>658</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>552</v>
+      <c r="B65" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>139</v>
+      <c r="E65" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H65" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="J65" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="K65" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30" t="s">
-        <v>405</v>
+      <c r="H65" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="J65" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>995</v>
+      </c>
+      <c r="M65" s="20"/>
+      <c r="N65" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="O65" s="20" t="s">
+        <v>649</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>406</v>
+        <v>173</v>
       </c>
       <c r="Q65" s="109" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>161</v>
+        <v>689</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>863</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>332</v>
+      <c r="E66" s="20" t="s">
+        <v>864</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>864</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>987</v>
+        <v>856</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J66" s="20" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="L66" s="20" t="s">
-        <v>995</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="L66" s="20"/>
       <c r="M66" s="20"/>
-      <c r="N66" s="30" t="s">
-        <v>341</v>
-      </c>
+      <c r="N66" s="20"/>
       <c r="O66" s="20" t="s">
-        <v>649</v>
+        <v>854</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q66" s="109" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16726,47 +16742,41 @@
         <v>40</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>689</v>
+        <v>1192</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>863</v>
+        <v>1193</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>864</v>
+      <c r="E67" s="18"/>
+      <c r="F67" s="59" t="s">
+        <v>1198</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>856</v>
+        <v>1194</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>924</v>
+        <v>1235</v>
       </c>
       <c r="J67" s="20" t="s">
-        <v>1065</v>
+        <v>1200</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="L67" s="20"/>
+        <v>1196</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>1201</v>
+      </c>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
-      <c r="O67" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="P67" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q67" s="109" t="s">
-        <v>690</v>
-      </c>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="109"/>
     </row>
     <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
@@ -16776,14 +16786,14 @@
         <v>1192</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="59" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>555</v>
@@ -16792,7 +16802,7 @@
         <v>1194</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>1235</v>
+        <v>1195</v>
       </c>
       <c r="J68" s="20" t="s">
         <v>1200</v>
@@ -16809,65 +16819,71 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="109"/>
     </row>
-    <row r="69" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>1192</v>
+        <v>103</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>1191</v>
+        <v>317</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="59" t="s">
-        <v>1197</v>
+      <c r="E69" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>1194</v>
+        <v>856</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>1195</v>
+        <v>924</v>
       </c>
       <c r="J69" s="20" t="s">
-        <v>1200</v>
+        <v>1065</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>1196</v>
-      </c>
-      <c r="L69" s="20" t="s">
-        <v>1201</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="L69" s="20"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="109"/>
+      <c r="O69" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69" s="109" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>317</v>
+      <c r="B70" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>862</v>
       </c>
       <c r="D70" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>380</v>
+        <v>864</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>864</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>555</v>
@@ -16886,7 +16902,7 @@
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="30"/>
       <c r="O70" s="20" t="s">
         <v>854</v>
       </c>
@@ -16894,74 +16910,74 @@
         <v>173</v>
       </c>
       <c r="Q70" s="109" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>862</v>
+      <c r="B71" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>886</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>864</v>
+        <v>885</v>
       </c>
       <c r="F71" s="59" t="s">
-        <v>864</v>
+        <v>1143</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="J71" s="20" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>855</v>
+        <v>987</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>421</v>
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="20" t="s">
-        <v>854</v>
-      </c>
+      <c r="N71" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="O71" s="20"/>
       <c r="P71" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q71" s="109" t="s">
-        <v>691</v>
+        <v>645</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="20" t="s">
-        <v>104</v>
+      <c r="B72" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>886</v>
+        <v>306</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>885</v>
+        <v>307</v>
       </c>
       <c r="F72" s="59" t="s">
-        <v>1143</v>
+        <v>942</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>555</v>
@@ -16969,14 +16985,14 @@
       <c r="H72" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="I72" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="J72" s="26" t="s">
-        <v>1066</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>421</v>
+      <c r="I72" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>422</v>
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
@@ -16988,28 +17004,24 @@
         <v>173</v>
       </c>
       <c r="Q72" s="109" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>109</v>
+      <c r="B73" s="20" t="s">
+        <v>556</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>306</v>
+        <v>660</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="59" t="s">
-        <v>942</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="26" t="s">
         <v>555</v>
       </c>
@@ -17017,25 +17029,23 @@
         <v>987</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="J73" s="20" t="s">
-        <v>1067</v>
+        <v>979</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>422</v>
+        <v>939</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
-      <c r="N73" s="30" t="s">
-        <v>341</v>
-      </c>
+      <c r="N73" s="20"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="Q73" s="109" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -17043,13 +17053,13 @@
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>660</v>
+        <v>105</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="59"/>
@@ -17060,40 +17070,46 @@
         <v>987</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="J74" s="20" t="s">
-        <v>979</v>
+        <v>1068</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>939</v>
+        <v>423</v>
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20" t="s">
-        <v>354</v>
+      <c r="O74" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="P74" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q74" s="109" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>105</v>
+      <c r="B75" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="59"/>
+      <c r="E75" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="78" t="s">
+        <v>168</v>
+      </c>
       <c r="G75" s="26" t="s">
         <v>555</v>
       </c>
@@ -17101,45 +17117,49 @@
         <v>987</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="J75" s="20" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="L75" s="20"/>
+        <v>412</v>
+      </c>
+      <c r="L75" s="20" t="s">
+        <v>976</v>
+      </c>
       <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="N75" s="30" t="s">
+        <v>341</v>
+      </c>
       <c r="O75" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="P75" s="30" t="s">
-        <v>313</v>
+        <v>128</v>
+      </c>
+      <c r="P75" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Q75" s="109" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>166</v>
+      <c r="B76" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>1030</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="78" t="s">
-        <v>168</v>
+      <c r="E76" s="20" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>1029</v>
       </c>
       <c r="G76" s="26" t="s">
         <v>555</v>
@@ -17148,29 +17168,25 @@
         <v>987</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>910</v>
+        <v>1026</v>
       </c>
       <c r="J76" s="20" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="L76" s="20" t="s">
-        <v>976</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="L76" s="20"/>
       <c r="M76" s="20"/>
       <c r="N76" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O76" s="20" t="s">
-        <v>128</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O76" s="20"/>
       <c r="P76" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q76" s="109" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -17178,19 +17194,19 @@
         <v>39</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>1030</v>
+        <v>108</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>170</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>1028</v>
+        <v>299</v>
       </c>
       <c r="F77" s="59" t="s">
-        <v>1029</v>
+        <v>1218</v>
       </c>
       <c r="G77" s="26" t="s">
         <v>555</v>
@@ -17199,46 +17215,44 @@
         <v>987</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>1026</v>
+        <v>1219</v>
       </c>
       <c r="J77" s="20" t="s">
-        <v>1069</v>
+        <v>1220</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
-      <c r="N77" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="O77" s="20"/>
+      <c r="N77" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="O77" s="20" t="s">
+        <v>340</v>
+      </c>
       <c r="P77" s="20" t="s">
         <v>173</v>
       </c>
       <c r="Q77" s="109" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>162</v>
+      <c r="B78" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E78" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="F78" s="59" t="s">
-        <v>1218</v>
-      </c>
+      <c r="E78" s="20"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="26" t="s">
         <v>555</v>
       </c>
@@ -17246,44 +17260,46 @@
         <v>987</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>1219</v>
+        <v>928</v>
       </c>
       <c r="J78" s="20" t="s">
-        <v>1220</v>
+        <v>1070</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
-      <c r="N78" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="O78" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="P78" s="20" t="s">
-        <v>173</v>
+      <c r="N78" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="O78" s="20"/>
+      <c r="P78" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q78" s="109" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>653</v>
+      <c r="B79" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="59"/>
+      <c r="E79" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>943</v>
+      </c>
       <c r="G79" s="26" t="s">
         <v>555</v>
       </c>
@@ -17291,22 +17307,22 @@
         <v>987</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="J79" s="20" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="K79" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
-      <c r="N79" s="30" t="s">
-        <v>341</v>
+      <c r="N79" s="20" t="s">
+        <v>348</v>
       </c>
       <c r="O79" s="20"/>
-      <c r="P79" s="30" t="s">
-        <v>313</v>
+      <c r="P79" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Q79" s="109" t="s">
         <v>654</v>
@@ -17316,90 +17332,90 @@
       <c r="A80" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>111</v>
+      <c r="B80" s="26" t="s">
+        <v>314</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>278</v>
+        <v>655</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="F80" s="59" t="s">
-        <v>943</v>
-      </c>
+      <c r="E80" s="27"/>
+      <c r="F80" s="79"/>
       <c r="G80" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="I80" s="20" t="s">
-        <v>929</v>
-      </c>
-      <c r="J80" s="20" t="s">
-        <v>1071</v>
+      <c r="I80" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>1072</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
-      <c r="N80" s="20" t="s">
-        <v>348</v>
+      <c r="N80" s="30" t="s">
+        <v>341</v>
       </c>
       <c r="O80" s="20"/>
-      <c r="P80" s="20" t="s">
-        <v>173</v>
+      <c r="P80" s="30" t="s">
+        <v>313</v>
       </c>
       <c r="Q80" s="109" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>314</v>
+      <c r="B81" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>655</v>
+        <v>358</v>
       </c>
       <c r="D81" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="79"/>
+      <c r="E81" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="78" t="s">
+        <v>139</v>
+      </c>
       <c r="G81" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H81" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>1072</v>
+        <v>406</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="J81" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
-      <c r="N81" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="O81" s="20"/>
-      <c r="P81" s="30" t="s">
-        <v>313</v>
+      <c r="N81" s="30"/>
+      <c r="O81" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="P81" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="Q81" s="109" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -17409,8 +17425,8 @@
       <c r="B82" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>358</v>
+      <c r="C82" s="18" t="s">
+        <v>319</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>170</v>
@@ -17448,6 +17464,8 @@
       <c r="Q82" s="109" t="s">
         <v>658</v>
       </c>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
@@ -17457,7 +17475,7 @@
         <v>138</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>170</v>
@@ -17506,7 +17524,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D84" s="20" t="s">
         <v>170</v>
@@ -17514,7 +17532,7 @@
       <c r="E84" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="78" t="s">
+      <c r="F84" s="28" t="s">
         <v>139</v>
       </c>
       <c r="G84" s="26" t="s">
@@ -17555,7 +17573,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D85" s="20" t="s">
         <v>170</v>
@@ -17604,7 +17622,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D86" s="20" t="s">
         <v>170</v>
@@ -17653,7 +17671,7 @@
         <v>138</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="D87" s="20" t="s">
         <v>170</v>
@@ -17702,7 +17720,7 @@
         <v>138</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>170</v>
@@ -17750,8 +17768,8 @@
       <c r="B89" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>321</v>
+      <c r="C89" s="24" t="s">
+        <v>318</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>170</v>
@@ -17792,88 +17810,74 @@
       <c r="R89" s="23"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" s="20" t="s">
+      <c r="B90" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D90" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="H90" s="62"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="O90" s="63"/>
+      <c r="P90" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q90" s="65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D91" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" s="26" t="s">
+      <c r="F91" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G91" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H90" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="I90" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="J90" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="K90" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="P90" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q90" s="109" t="s">
-        <v>658</v>
-      </c>
-      <c r="R90" s="23"/>
-      <c r="S90" s="23"/>
-    </row>
-    <row r="91" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="C91" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="D91" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="H91" s="62"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="63"/>
-      <c r="K91" s="63"/>
-      <c r="L91" s="63"/>
-      <c r="M91" s="63"/>
-      <c r="N91" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="O91" s="63"/>
-      <c r="P91" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q91" s="65" t="s">
-        <v>614</v>
+      <c r="H91" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="N91" s="30" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -17881,16 +17885,16 @@
         <v>40</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>170</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="G92" s="26" t="s">
         <v>555</v>
@@ -17899,16 +17903,25 @@
         <v>989</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1378</v>
+        <v>1394</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>1393</v>
       </c>
       <c r="N92" s="30" t="s">
-        <v>1379</v>
+        <v>1395</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -17916,43 +17929,34 @@
         <v>40</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>170</v>
+        <v>1383</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="G93" s="26" t="s">
         <v>555</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>989</v>
+        <v>1170</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="N93" s="30" t="s">
-        <v>1395</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>1396</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>1397</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -17960,34 +17964,34 @@
         <v>40</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>1383</v>
+        <v>1401</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1402</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="G94" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>1170</v>
+      <c r="H94" s="20" t="s">
+        <v>987</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>1385</v>
+        <v>1404</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1387</v>
+        <v>1406</v>
       </c>
       <c r="N94" s="30" t="s">
-        <v>1379</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
@@ -17995,16 +17999,13 @@
         <v>40</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="G95" s="26" t="s">
         <v>555</v>
@@ -18013,58 +18014,21 @@
         <v>987</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="N95" s="30" t="s">
-        <v>1407</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>987</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="N96" s="30" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>1414</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="1" t="s">
-        <v>1415</v>
       </c>
     </row>
   </sheetData>
@@ -19535,10 +19499,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19546,7 +19510,7 @@
     <col min="1" max="1" width="32.5" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
@@ -19898,63 +19862,81 @@
         <v>688</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="92" t="s">
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="51" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B34" s="133" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="51" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B35" s="133" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="92" t="s">
         <v>1139</v>
       </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="120" t="s">
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="120" t="s">
         <v>359</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B38" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C38" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D38" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="120" t="s">
+      <c r="E38" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="116" t="s">
+      <c r="F38" s="116" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B38" s="136" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="135" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="123" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B39" s="136"/>
+        <v>1327</v>
+      </c>
+      <c r="B39" s="136" t="s">
+        <v>1329</v>
+      </c>
       <c r="C39" s="119"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="135"/>
+      <c r="F39" s="135" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="123" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B40" s="136"/>
       <c r="C40" s="119"/>
@@ -19964,7 +19946,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="123" t="s">
-        <v>1335</v>
+        <v>1263</v>
       </c>
       <c r="B41" s="136"/>
       <c r="C41" s="119"/>
@@ -19974,7 +19956,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="123" t="s">
-        <v>1303</v>
+        <v>1335</v>
       </c>
       <c r="B42" s="136"/>
       <c r="C42" s="119"/>
@@ -19984,7 +19966,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="123" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="B43" s="136"/>
       <c r="C43" s="119"/>
@@ -19993,8 +19975,8 @@
       <c r="F43" s="135"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="124" t="s">
-        <v>1336</v>
+      <c r="A44" s="123" t="s">
+        <v>1311</v>
       </c>
       <c r="B44" s="136"/>
       <c r="C44" s="119"/>
@@ -20004,7 +19986,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="124" t="s">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="B45" s="136"/>
       <c r="C45" s="119"/>
@@ -20014,7 +19996,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="124" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="B46" s="136"/>
       <c r="C46" s="119"/>
@@ -20024,7 +20006,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="124" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="B47" s="136"/>
       <c r="C47" s="119"/>
@@ -20034,7 +20016,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="124" t="s">
-        <v>1291</v>
+        <v>1318</v>
       </c>
       <c r="B48" s="136"/>
       <c r="C48" s="119"/>
@@ -20044,7 +20026,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="124" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="B49" s="136"/>
       <c r="C49" s="119"/>
@@ -20054,7 +20036,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="124" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="B50" s="136"/>
       <c r="C50" s="119"/>
@@ -20064,7 +20046,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="124" t="s">
-        <v>1295</v>
+        <v>1314</v>
       </c>
       <c r="B51" s="136"/>
       <c r="C51" s="119"/>
@@ -20074,7 +20056,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="124" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="119"/>
@@ -20084,7 +20066,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="B53" s="136"/>
       <c r="C53" s="119"/>
@@ -20094,7 +20076,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="s">
-        <v>83</v>
+        <v>1315</v>
       </c>
       <c r="B54" s="136"/>
       <c r="C54" s="119"/>
@@ -20104,7 +20086,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="124" t="s">
-        <v>1265</v>
+        <v>83</v>
       </c>
       <c r="B55" s="136"/>
       <c r="C55" s="119"/>
@@ -20114,7 +20096,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="124" t="s">
-        <v>1298</v>
+        <v>1265</v>
       </c>
       <c r="B56" s="136"/>
       <c r="C56" s="119"/>
@@ -20124,7 +20106,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="s">
-        <v>1316</v>
+        <v>1298</v>
       </c>
       <c r="B57" s="136"/>
       <c r="C57" s="119"/>
@@ -20134,7 +20116,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="124" t="s">
-        <v>1266</v>
+        <v>1316</v>
       </c>
       <c r="B58" s="136"/>
       <c r="C58" s="119"/>
@@ -20144,7 +20126,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="124" t="s">
-        <v>1301</v>
+        <v>1266</v>
       </c>
       <c r="B59" s="136"/>
       <c r="C59" s="119"/>
@@ -20154,7 +20136,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="B60" s="136"/>
       <c r="C60" s="119"/>
@@ -20164,57 +20146,57 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="124" t="s">
-        <v>80</v>
+        <v>1310</v>
       </c>
       <c r="B61" s="136"/>
       <c r="C61" s="119"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="17" t="s">
-        <v>1319</v>
-      </c>
+      <c r="F61" s="135"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="119" t="s">
-        <v>1254</v>
-      </c>
+      <c r="A62" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="136"/>
       <c r="C62" s="119"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="52" t="s">
-        <v>1248</v>
+      <c r="F62" s="17" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="125" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B63" s="137" t="s">
-        <v>1330</v>
+      <c r="A63" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="119" t="s">
+        <v>1254</v>
       </c>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="135" t="s">
-        <v>1321</v>
+      <c r="F63" s="52" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="125" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B64" s="137"/>
+        <v>1278</v>
+      </c>
+      <c r="B64" s="137" t="s">
+        <v>1330</v>
+      </c>
       <c r="C64" s="119"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="135"/>
+      <c r="F64" s="135" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="125" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
       <c r="B65" s="137"/>
       <c r="C65" s="119"/>
@@ -20224,7 +20206,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="125" t="s">
-        <v>1299</v>
+        <v>1274</v>
       </c>
       <c r="B66" s="137"/>
       <c r="C66" s="119"/>
@@ -20234,7 +20216,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="125" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="B67" s="137"/>
       <c r="C67" s="119"/>
@@ -20244,7 +20226,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="125" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="B68" s="137"/>
       <c r="C68" s="119"/>
@@ -20254,7 +20236,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="125" t="s">
-        <v>82</v>
+        <v>1302</v>
       </c>
       <c r="B69" s="137"/>
       <c r="C69" s="119"/>
@@ -20264,29 +20246,29 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="125" t="s">
-        <v>1292</v>
+        <v>82</v>
       </c>
       <c r="B70" s="137"/>
       <c r="C70" s="119"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="135" t="s">
-        <v>1323</v>
-      </c>
+      <c r="F70" s="135"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="125" t="s">
-        <v>1268</v>
+        <v>1292</v>
       </c>
       <c r="B71" s="137"/>
       <c r="C71" s="119"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="135"/>
+      <c r="F71" s="135" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="125" t="s">
-        <v>1300</v>
+        <v>1268</v>
       </c>
       <c r="B72" s="137"/>
       <c r="C72" s="119"/>
@@ -20296,7 +20278,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="125" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="B73" s="137"/>
       <c r="C73" s="119"/>
@@ -20306,7 +20288,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="125" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="B74" s="137"/>
       <c r="C74" s="119"/>
@@ -20316,7 +20298,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="125" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B75" s="137"/>
       <c r="C75" s="119"/>
@@ -20326,66 +20308,60 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="125" t="s">
-        <v>84</v>
+        <v>1312</v>
       </c>
       <c r="B76" s="137"/>
       <c r="C76" s="119"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="17" t="s">
-        <v>1324</v>
-      </c>
+      <c r="F76" s="135"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>1317</v>
+      <c r="A77" s="125" t="s">
+        <v>84</v>
       </c>
       <c r="B77" s="137"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A78" s="126" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B78" s="93" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C78" s="119" t="s">
-        <v>1246</v>
-      </c>
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B78" s="137"/>
+      <c r="C78" s="119"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="119" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="127" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B79" s="119" t="s">
-        <v>1255</v>
+      <c r="F78" s="17" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A79" s="126" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B79" s="93" t="s">
+        <v>1253</v>
       </c>
       <c r="C79" s="119" t="s">
         <v>1246</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="51" t="s">
-        <v>1252</v>
+      <c r="F79" s="119" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="127" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B80" s="119" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C80" s="119" t="s">
         <v>1246</v>
@@ -20393,12 +20369,12 @@
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="51" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>1256</v>
+      <c r="A81" s="127" t="s">
+        <v>1250</v>
       </c>
       <c r="B81" s="119" t="s">
         <v>1254</v>
@@ -20409,12 +20385,12 @@
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="51" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="125" t="s">
-        <v>1257</v>
+      <c r="A82" s="17" t="s">
+        <v>1256</v>
       </c>
       <c r="B82" s="119" t="s">
         <v>1254</v>
@@ -20425,12 +20401,12 @@
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="51" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="125" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B83" s="119" t="s">
         <v>1254</v>
@@ -20441,50 +20417,66 @@
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="51" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>1297</v>
+      <c r="A84" s="125" t="s">
+        <v>1258</v>
       </c>
       <c r="B84" s="119" t="s">
-        <v>1331</v>
+        <v>1254</v>
       </c>
       <c r="C84" s="119" t="s">
-        <v>1334</v>
+        <v>1246</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="51" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B85" s="119" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C85" s="119" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="119" t="s">
+    <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A86" s="119" t="s">
         <v>1357</v>
       </c>
-      <c r="B85" s="119" t="s">
+      <c r="B86" s="119" t="s">
         <v>1332</v>
       </c>
-      <c r="C85" s="119" t="s">
+      <c r="C86" s="119" t="s">
         <v>1246</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="93" t="s">
+      <c r="D86" s="17"/>
+      <c r="E86" s="93" t="s">
         <v>1362</v>
       </c>
-      <c r="F85" s="119" t="s">
+      <c r="F86" s="119" t="s">
         <v>1328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F63:F69"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="B38:B61"/>
-    <mergeCell ref="B63:B77"/>
-    <mergeCell ref="F38:F60"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="B39:B62"/>
+    <mergeCell ref="B64:B78"/>
+    <mergeCell ref="F39:F61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22563,7 +22555,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="139" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="135" t="s">
@@ -22586,7 +22578,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="135"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
@@ -22605,7 +22597,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="138"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="55" t="s">
         <v>433</v>
       </c>
@@ -22626,7 +22618,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="138"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="135" t="s">
         <v>436</v>
       </c>
@@ -22647,7 +22639,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="135"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
@@ -22664,7 +22656,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="135"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
@@ -22683,7 +22675,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="138"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="135"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
@@ -22702,7 +22694,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="138"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="135" t="s">
         <v>748</v>
       </c>
@@ -22723,7 +22715,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="135"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
@@ -22742,7 +22734,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="55" t="s">
         <v>530</v>
       </c>
@@ -22763,7 +22755,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="138"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="55" t="s">
         <v>438</v>
       </c>
@@ -23101,7 +23093,7 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="138" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23122,7 +23114,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23141,7 +23133,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="139"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23533,16 +23525,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23552,6 +23534,16 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用规划" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="C38" authorId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="1437">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -10656,9 +10656,6 @@
     <t>20360</t>
   </si>
   <si>
-    <t>20360以被spark thriftserver占用</t>
-  </si>
-  <si>
     <t>/data/logs/spark2</t>
   </si>
   <si>
@@ -10685,6 +10682,55 @@
     <t>bigdata-cmpt-128-1:20360
 bigdata-cmpt-128-13:20360
 bigdata-cmpt-128-25:20360</t>
+  </si>
+  <si>
+    <t>phoenixserver.whaleybigdata.com</t>
+  </si>
+  <si>
+    <t>Phoenix QueryServer</t>
+  </si>
+  <si>
+    <t>bigdata-appsvr-130-6
+bigdata-appsvr-130-7</t>
+  </si>
+  <si>
+    <t>bigdata-cmpt-128-1:8765
+bigdata-cmpt-128-13:8765
+bigdata-cmpt-128-25:8765</t>
+  </si>
+  <si>
+    <t>odsviewmd.whaleybigdata.com</t>
+  </si>
+  <si>
+    <t>ods_view metadata manage server</t>
+  </si>
+  <si>
+    <t>bigdata-appsvr-130-5:8084
+bigdata-appsvr-130-6:8084</t>
+  </si>
+  <si>
+    <t>ods_view_manager</t>
+  </si>
+  <si>
+    <t>ods_view元数据管理</t>
+  </si>
+  <si>
+    <t>20370</t>
+  </si>
+  <si>
+    <t>下一个可用端口段为</t>
+  </si>
+  <si>
+    <t>20380</t>
+  </si>
+  <si>
+    <t>/opt/ods-view-metadata</t>
+  </si>
+  <si>
+    <t>/app/ods-view-metadata-1.0-SNAPSHOT/</t>
+  </si>
+  <si>
+    <t>/opt/ods-view-metadata/logs/</t>
   </si>
 </sst>
 </file>
@@ -11225,7 +11271,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11561,10 +11607,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11577,6 +11623,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
@@ -13572,13 +13627,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14733,13 +14788,13 @@
         <v>329</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>1051</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="30" t="s">
@@ -18027,8 +18082,47 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E96" s="1" t="s">
-        <v>1414</v>
+      <c r="A96" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="N96" s="146"/>
+      <c r="P96" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -19499,10 +19593,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A32" zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19864,99 +19958,107 @@
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="51" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B34" s="133" t="s">
         <v>1417</v>
-      </c>
-      <c r="B34" s="133" t="s">
-        <v>1418</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>858</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="51" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B35" s="133" t="s">
         <v>1420</v>
       </c>
-      <c r="B35" s="133" t="s">
+      <c r="C35" s="26" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>1421</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="D35" s="67" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="144" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="92" t="s">
+      <c r="B36" s="111" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C36" s="145" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="144" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D37" s="145" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="92" t="s">
         <v>1139</v>
       </c>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="120" t="s">
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="120" t="s">
         <v>359</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B40" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="121" t="s">
+      <c r="C40" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="116" t="s">
+      <c r="D40" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="120" t="s">
+      <c r="E40" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="116" t="s">
+      <c r="F40" s="116" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="123" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B39" s="136" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="135" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="135"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="123" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B41" s="136"/>
+        <v>1327</v>
+      </c>
+      <c r="B41" s="136" t="s">
+        <v>1329</v>
+      </c>
       <c r="C41" s="119"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="135"/>
+      <c r="F41" s="135" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="123" t="s">
-        <v>1335</v>
+        <v>1262</v>
       </c>
       <c r="B42" s="136"/>
       <c r="C42" s="119"/>
@@ -19966,7 +20068,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="123" t="s">
-        <v>1303</v>
+        <v>1263</v>
       </c>
       <c r="B43" s="136"/>
       <c r="C43" s="119"/>
@@ -19976,7 +20078,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="123" t="s">
-        <v>1311</v>
+        <v>1335</v>
       </c>
       <c r="B44" s="136"/>
       <c r="C44" s="119"/>
@@ -19985,8 +20087,8 @@
       <c r="F44" s="135"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="124" t="s">
-        <v>1336</v>
+      <c r="A45" s="123" t="s">
+        <v>1303</v>
       </c>
       <c r="B45" s="136"/>
       <c r="C45" s="119"/>
@@ -19995,8 +20097,8 @@
       <c r="F45" s="135"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="124" t="s">
-        <v>1305</v>
+      <c r="A46" s="123" t="s">
+        <v>1311</v>
       </c>
       <c r="B46" s="136"/>
       <c r="C46" s="119"/>
@@ -20006,7 +20108,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="124" t="s">
-        <v>1313</v>
+        <v>1336</v>
       </c>
       <c r="B47" s="136"/>
       <c r="C47" s="119"/>
@@ -20016,7 +20118,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="124" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="B48" s="136"/>
       <c r="C48" s="119"/>
@@ -20026,7 +20128,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="124" t="s">
-        <v>1291</v>
+        <v>1313</v>
       </c>
       <c r="B49" s="136"/>
       <c r="C49" s="119"/>
@@ -20036,7 +20138,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="124" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
       <c r="B50" s="136"/>
       <c r="C50" s="119"/>
@@ -20046,7 +20148,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="124" t="s">
-        <v>1314</v>
+        <v>1291</v>
       </c>
       <c r="B51" s="136"/>
       <c r="C51" s="119"/>
@@ -20056,7 +20158,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="124" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="B52" s="136"/>
       <c r="C52" s="119"/>
@@ -20066,7 +20168,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="124" t="s">
-        <v>1307</v>
+        <v>1314</v>
       </c>
       <c r="B53" s="136"/>
       <c r="C53" s="119"/>
@@ -20076,7 +20178,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="124" t="s">
-        <v>1315</v>
+        <v>1295</v>
       </c>
       <c r="B54" s="136"/>
       <c r="C54" s="119"/>
@@ -20086,7 +20188,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="124" t="s">
-        <v>83</v>
+        <v>1307</v>
       </c>
       <c r="B55" s="136"/>
       <c r="C55" s="119"/>
@@ -20096,7 +20198,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="124" t="s">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="B56" s="136"/>
       <c r="C56" s="119"/>
@@ -20106,7 +20208,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="124" t="s">
-        <v>1298</v>
+        <v>83</v>
       </c>
       <c r="B57" s="136"/>
       <c r="C57" s="119"/>
@@ -20116,7 +20218,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="124" t="s">
-        <v>1316</v>
+        <v>1265</v>
       </c>
       <c r="B58" s="136"/>
       <c r="C58" s="119"/>
@@ -20126,7 +20228,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="124" t="s">
-        <v>1266</v>
+        <v>1298</v>
       </c>
       <c r="B59" s="136"/>
       <c r="C59" s="119"/>
@@ -20136,7 +20238,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="124" t="s">
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="B60" s="136"/>
       <c r="C60" s="119"/>
@@ -20146,7 +20248,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="124" t="s">
-        <v>1310</v>
+        <v>1266</v>
       </c>
       <c r="B61" s="136"/>
       <c r="C61" s="119"/>
@@ -20156,67 +20258,67 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="124" t="s">
-        <v>80</v>
+        <v>1301</v>
       </c>
       <c r="B62" s="136"/>
       <c r="C62" s="119"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="17" t="s">
-        <v>1319</v>
-      </c>
+      <c r="F62" s="135"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="119" t="s">
-        <v>1254</v>
-      </c>
+      <c r="A63" s="124" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B63" s="136"/>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="52" t="s">
-        <v>1248</v>
-      </c>
+      <c r="F63" s="135"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="125" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B64" s="137" t="s">
-        <v>1330</v>
-      </c>
+      <c r="A64" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="136"/>
       <c r="C64" s="119"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-      <c r="F64" s="135" t="s">
-        <v>1321</v>
+      <c r="F64" s="17" t="s">
+        <v>1319</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="125" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B65" s="137"/>
+      <c r="A65" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="119" t="s">
+        <v>1254</v>
+      </c>
       <c r="C65" s="119"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
-      <c r="F65" s="135"/>
+      <c r="F65" s="52" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="125" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B66" s="137"/>
+        <v>1278</v>
+      </c>
+      <c r="B66" s="137" t="s">
+        <v>1330</v>
+      </c>
       <c r="C66" s="119"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="135"/>
+      <c r="F66" s="135" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="125" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="B67" s="137"/>
       <c r="C67" s="119"/>
@@ -20226,7 +20328,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="125" t="s">
-        <v>1308</v>
+        <v>1274</v>
       </c>
       <c r="B68" s="137"/>
       <c r="C68" s="119"/>
@@ -20236,7 +20338,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="125" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B69" s="137"/>
       <c r="C69" s="119"/>
@@ -20246,7 +20348,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="125" t="s">
-        <v>82</v>
+        <v>1308</v>
       </c>
       <c r="B70" s="137"/>
       <c r="C70" s="119"/>
@@ -20256,19 +20358,17 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="125" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
       <c r="B71" s="137"/>
       <c r="C71" s="119"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="135" t="s">
-        <v>1323</v>
-      </c>
+      <c r="F71" s="135"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="125" t="s">
-        <v>1268</v>
+        <v>82</v>
       </c>
       <c r="B72" s="137"/>
       <c r="C72" s="119"/>
@@ -20278,17 +20378,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="125" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="B73" s="137"/>
       <c r="C73" s="119"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="135"/>
+      <c r="F73" s="135" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="125" t="s">
-        <v>1304</v>
+        <v>1268</v>
       </c>
       <c r="B74" s="137"/>
       <c r="C74" s="119"/>
@@ -20298,7 +20400,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="125" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="B75" s="137"/>
       <c r="C75" s="119"/>
@@ -20308,7 +20410,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="125" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="B76" s="137"/>
       <c r="C76" s="119"/>
@@ -20318,82 +20420,70 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="125" t="s">
-        <v>84</v>
+        <v>1309</v>
       </c>
       <c r="B77" s="137"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="17" t="s">
-        <v>1324</v>
-      </c>
+      <c r="F77" s="135"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>1317</v>
+      <c r="A78" s="125" t="s">
+        <v>1312</v>
       </c>
       <c r="B78" s="137"/>
       <c r="C78" s="119"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="17" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A79" s="126" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B79" s="93" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C79" s="119" t="s">
-        <v>1246</v>
-      </c>
+      <c r="F78" s="135"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="137"/>
+      <c r="C79" s="119"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
-      <c r="F79" s="119" t="s">
-        <v>1326</v>
+      <c r="F79" s="17" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="127" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B80" s="119" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C80" s="119" t="s">
-        <v>1246</v>
-      </c>
+      <c r="A80" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B80" s="137"/>
+      <c r="C80" s="119"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
-      <c r="F80" s="51" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="127" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B81" s="119" t="s">
-        <v>1254</v>
+      <c r="F80" s="17" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A81" s="126" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B81" s="93" t="s">
+        <v>1253</v>
       </c>
       <c r="C81" s="119" t="s">
         <v>1246</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
-      <c r="F81" s="51" t="s">
-        <v>1251</v>
+      <c r="F81" s="119" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>1256</v>
+      <c r="A82" s="127" t="s">
+        <v>1249</v>
       </c>
       <c r="B82" s="119" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C82" s="119" t="s">
         <v>1246</v>
@@ -20401,12 +20491,12 @@
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="51" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="125" t="s">
-        <v>1257</v>
+      <c r="A83" s="127" t="s">
+        <v>1250</v>
       </c>
       <c r="B83" s="119" t="s">
         <v>1254</v>
@@ -20417,12 +20507,12 @@
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="51" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="125" t="s">
-        <v>1258</v>
+      <c r="A84" s="17" t="s">
+        <v>1256</v>
       </c>
       <c r="B84" s="119" t="s">
         <v>1254</v>
@@ -20433,50 +20523,82 @@
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="51" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>1297</v>
+      <c r="A85" s="125" t="s">
+        <v>1257</v>
       </c>
       <c r="B85" s="119" t="s">
-        <v>1331</v>
+        <v>1254</v>
       </c>
       <c r="C85" s="119" t="s">
-        <v>1334</v>
+        <v>1246</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
-      <c r="F85" s="17" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="119" t="s">
-        <v>1357</v>
+      <c r="F85" s="51" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="125" t="s">
+        <v>1258</v>
       </c>
       <c r="B86" s="119" t="s">
-        <v>1332</v>
+        <v>1254</v>
       </c>
       <c r="C86" s="119" t="s">
         <v>1246</v>
       </c>
       <c r="D86" s="17"/>
-      <c r="E86" s="93" t="s">
+      <c r="E86" s="17"/>
+      <c r="F86" s="51" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B87" s="119" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C87" s="119" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="119" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B88" s="119" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C88" s="119" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="93" t="s">
         <v>1362</v>
       </c>
-      <c r="F86" s="119" t="s">
+      <c r="F88" s="119" t="s">
         <v>1328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F64:F70"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="B39:B62"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="F39:F61"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="F73:F78"/>
+    <mergeCell ref="B41:B64"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="F41:F63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22555,7 +22677,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>749</v>
       </c>
       <c r="B2" s="135" t="s">
@@ -22578,7 +22700,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="139"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="135"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
@@ -22597,7 +22719,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="139"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="55" t="s">
         <v>433</v>
       </c>
@@ -22618,7 +22740,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="139"/>
+      <c r="A5" s="138"/>
       <c r="B5" s="135" t="s">
         <v>436</v>
       </c>
@@ -22639,7 +22761,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="139"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="135"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
@@ -22656,7 +22778,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="139"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="135"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
@@ -22675,7 +22797,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="139"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="135"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
@@ -22694,7 +22816,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="139"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="135" t="s">
         <v>748</v>
       </c>
@@ -22715,7 +22837,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="139"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="135"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
@@ -22734,7 +22856,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="139"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="55" t="s">
         <v>530</v>
       </c>
@@ -22755,7 +22877,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="139"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="55" t="s">
         <v>438</v>
       </c>
@@ -23093,7 +23215,7 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="139" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23114,7 +23236,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="138"/>
+      <c r="A31" s="139"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23133,7 +23255,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
+      <c r="A32" s="139"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23525,6 +23647,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23534,16 +23666,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kassell/workspace/deployment/docs/设计资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujiulin/workspace/deployment/docs/设计资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="1439">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1361,7 +1361,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1380,7 +1380,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -10731,6 +10731,14 @@
   </si>
   <si>
     <t>/opt/ods-view-metadata/logs/</t>
+  </si>
+  <si>
+    <t>streaming-test(bigtest-appsvr-129-8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10741,21 +10749,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10764,7 +10772,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10773,7 +10781,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10781,7 +10789,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10810,7 +10818,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10832,7 +10840,7 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10841,7 +10849,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10849,7 +10857,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10858,7 +10866,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10883,7 +10891,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11271,7 +11279,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11594,6 +11602,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11607,10 +11624,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11624,184 +11641,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -12087,7 +12098,7 @@
       <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -12117,7 +12128,7 @@
     <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
@@ -12172,8 +12183,8 @@
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
     </row>
-    <row r="2" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="137" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="118" t="s">
@@ -12219,8 +12230,8 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="134"/>
+    <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A3" s="137"/>
       <c r="B3" s="118" t="s">
         <v>8</v>
       </c>
@@ -12266,8 +12277,8 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="134"/>
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="137"/>
       <c r="B4" s="118" t="s">
         <v>9</v>
       </c>
@@ -12319,8 +12330,8 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="137" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="118" t="s">
@@ -12368,8 +12379,8 @@
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="134"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="137"/>
       <c r="B6" s="118" t="s">
         <v>362</v>
       </c>
@@ -12415,8 +12426,8 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7" s="137"/>
       <c r="B7" s="118" t="s">
         <v>531</v>
       </c>
@@ -12462,8 +12473,8 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="137"/>
       <c r="B8" s="118" t="s">
         <v>532</v>
       </c>
@@ -12509,8 +12520,8 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="137"/>
       <c r="B9" s="118" t="s">
         <v>533</v>
       </c>
@@ -12556,7 +12567,7 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -12636,8 +12647,8 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="134" t="s">
+    <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="137" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -12694,8 +12705,8 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="137"/>
       <c r="B12" s="118" t="s">
         <v>535</v>
       </c>
@@ -12750,8 +12761,8 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="137"/>
       <c r="B13" s="118" t="s">
         <v>363</v>
       </c>
@@ -12806,8 +12817,8 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
+    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="137"/>
       <c r="B14" s="118" t="s">
         <v>364</v>
       </c>
@@ -12859,8 +12870,8 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
-    <row r="15" spans="1:26" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
+    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.15">
+      <c r="A15" s="137"/>
       <c r="B15" s="118" t="s">
         <v>365</v>
       </c>
@@ -12912,8 +12923,8 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
-    <row r="16" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
+    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.15">
+      <c r="A16" s="137"/>
       <c r="B16" s="118" t="s">
         <v>366</v>
       </c>
@@ -12965,8 +12976,8 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
+    <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A17" s="137"/>
       <c r="B17" s="118" t="s">
         <v>367</v>
       </c>
@@ -13022,7 +13033,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -13071,8 +13082,8 @@
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
-    <row r="19" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="134" t="s">
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A19" s="137" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="118" t="s">
@@ -13108,8 +13119,8 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
     </row>
-    <row r="20" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A20" s="137"/>
       <c r="B20" s="118" t="s">
         <v>28</v>
       </c>
@@ -13143,8 +13154,8 @@
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
     </row>
-    <row r="21" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
+    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A21" s="137"/>
       <c r="B21" s="118" t="s">
         <v>29</v>
       </c>
@@ -13178,8 +13189,8 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
     </row>
-    <row r="22" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="134"/>
+    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A22" s="137"/>
       <c r="B22" s="118" t="s">
         <v>30</v>
       </c>
@@ -13213,8 +13224,8 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
     </row>
-    <row r="23" spans="1:25" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="134"/>
+    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.15">
+      <c r="A23" s="137"/>
       <c r="B23" s="118" t="s">
         <v>31</v>
       </c>
@@ -13248,8 +13259,8 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
     </row>
-    <row r="24" spans="1:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
+    <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.15">
+      <c r="A24" s="137"/>
       <c r="B24" s="118" t="s">
         <v>34</v>
       </c>
@@ -13289,8 +13300,8 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A25" s="137"/>
       <c r="B25" s="118" t="s">
         <v>36</v>
       </c>
@@ -13328,8 +13339,8 @@
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A26" s="137"/>
       <c r="B26" s="118" t="s">
         <v>37</v>
       </c>
@@ -13367,8 +13378,8 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A27" s="137"/>
       <c r="B27" s="118" t="s">
         <v>38</v>
       </c>
@@ -13402,8 +13413,8 @@
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
     </row>
-    <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
+    <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="137"/>
       <c r="B28" s="118" t="s">
         <v>42</v>
       </c>
@@ -13437,8 +13448,8 @@
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="134"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A29" s="137"/>
       <c r="B29" s="118" t="s">
         <v>163</v>
       </c>
@@ -13472,8 +13483,8 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="134"/>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A30" s="137"/>
       <c r="B30" s="118" t="s">
         <v>310</v>
       </c>
@@ -13507,8 +13518,8 @@
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="134"/>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A31" s="137"/>
       <c r="B31" s="118" t="s">
         <v>311</v>
       </c>
@@ -13542,8 +13553,8 @@
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="134"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A32" s="137"/>
       <c r="B32" s="118" t="s">
         <v>312</v>
       </c>
@@ -13577,23 +13588,23 @@
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -13603,7 +13614,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="D40" s="2"/>
@@ -13627,16 +13638,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
@@ -13660,7 +13671,7 @@
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
@@ -13713,7 +13724,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>74</v>
       </c>
@@ -13764,7 +13775,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
@@ -13813,7 +13824,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
@@ -13864,7 +13875,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
         <v>74</v>
       </c>
@@ -13917,7 +13928,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>74</v>
       </c>
@@ -13966,7 +13977,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>74</v>
       </c>
@@ -14066,7 +14077,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="60" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>74</v>
       </c>
@@ -14119,7 +14130,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>74</v>
       </c>
@@ -14170,7 +14181,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>74</v>
       </c>
@@ -14221,7 +14232,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
@@ -14270,7 +14281,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
         <v>74</v>
       </c>
@@ -14319,7 +14330,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
         <v>74</v>
       </c>
@@ -14368,7 +14379,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
         <v>74</v>
       </c>
@@ -14417,7 +14428,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
         <v>74</v>
       </c>
@@ -14466,7 +14477,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>74</v>
       </c>
@@ -14515,7 +14526,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
         <v>74</v>
       </c>
@@ -14558,7 +14569,7 @@
       </c>
       <c r="Q18" s="112"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
         <v>74</v>
       </c>
@@ -14609,7 +14620,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
         <v>74</v>
       </c>
@@ -14660,7 +14671,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>74</v>
       </c>
@@ -14711,7 +14722,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
@@ -14762,7 +14773,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>74</v>
       </c>
@@ -14813,7 +14824,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
@@ -14862,7 +14873,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>74</v>
       </c>
@@ -14911,7 +14922,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>74</v>
       </c>
@@ -14958,7 +14969,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
@@ -15009,7 +15020,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
         <v>40</v>
       </c>
@@ -15060,7 +15071,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>40</v>
       </c>
@@ -15111,7 +15122,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>40</v>
       </c>
@@ -15160,7 +15171,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
@@ -15209,7 +15220,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
@@ -15258,7 +15269,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>40</v>
       </c>
@@ -15307,7 +15318,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
         <v>40</v>
       </c>
@@ -15348,7 +15359,7 @@
       <c r="P34" s="20"/>
       <c r="Q34" s="109"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
         <v>40</v>
       </c>
@@ -15389,7 +15400,7 @@
       <c r="P35" s="20"/>
       <c r="Q35" s="109"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="19" t="s">
         <v>40</v>
       </c>
@@ -15430,7 +15441,7 @@
       <c r="P36" s="20"/>
       <c r="Q36" s="109"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
         <v>40</v>
       </c>
@@ -15481,7 +15492,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
         <v>40</v>
       </c>
@@ -15530,7 +15541,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="19" t="s">
         <v>40</v>
       </c>
@@ -15579,7 +15590,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="19" t="s">
         <v>40</v>
       </c>
@@ -15628,7 +15639,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
         <v>40</v>
       </c>
@@ -15673,7 +15684,7 @@
       </c>
       <c r="Q41" s="112"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
@@ -15714,7 +15725,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="115"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>40</v>
       </c>
@@ -15763,7 +15774,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="19" t="s">
         <v>40</v>
       </c>
@@ -15810,7 +15821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="19" t="s">
         <v>40</v>
       </c>
@@ -15853,7 +15864,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
         <v>40</v>
       </c>
@@ -15896,7 +15907,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
         <v>40</v>
       </c>
@@ -15939,7 +15950,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="19" t="s">
         <v>40</v>
       </c>
@@ -15982,7 +15993,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="19" t="s">
         <v>40</v>
       </c>
@@ -16025,7 +16036,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="19" t="s">
         <v>40</v>
       </c>
@@ -16068,7 +16079,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
         <v>40</v>
       </c>
@@ -16111,7 +16122,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
         <v>40</v>
       </c>
@@ -16154,7 +16165,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
         <v>40</v>
       </c>
@@ -16197,7 +16208,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
         <v>40</v>
       </c>
@@ -16240,7 +16251,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="19" t="s">
         <v>40</v>
       </c>
@@ -16283,7 +16294,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="19" t="s">
         <v>40</v>
       </c>
@@ -16326,7 +16337,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="19" t="s">
         <v>40</v>
       </c>
@@ -16369,7 +16380,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="19" t="s">
         <v>40</v>
       </c>
@@ -16412,7 +16423,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="19" t="s">
         <v>40</v>
       </c>
@@ -16459,7 +16470,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="19" t="s">
         <v>40</v>
       </c>
@@ -16506,7 +16517,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="19" t="s">
         <v>40</v>
       </c>
@@ -16553,7 +16564,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
         <v>40</v>
       </c>
@@ -16600,7 +16611,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="19" t="s">
         <v>40</v>
       </c>
@@ -16647,7 +16658,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="19" t="s">
         <v>40</v>
       </c>
@@ -16694,7 +16705,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.15">
       <c r="A65" s="19" t="s">
         <v>40</v>
       </c>
@@ -16745,7 +16756,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="19" t="s">
         <v>40</v>
       </c>
@@ -16792,7 +16803,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="19" t="s">
         <v>40</v>
       </c>
@@ -16833,7 +16844,7 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="109"/>
     </row>
-    <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="19" t="s">
         <v>40</v>
       </c>
@@ -16874,7 +16885,7 @@
       <c r="P68" s="20"/>
       <c r="Q68" s="109"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="19" t="s">
         <v>39</v>
       </c>
@@ -16921,7 +16932,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="19" t="s">
         <v>39</v>
       </c>
@@ -16968,7 +16979,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="19" t="s">
         <v>39</v>
       </c>
@@ -17015,7 +17026,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="19" t="s">
         <v>39</v>
       </c>
@@ -17062,7 +17073,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="19" t="s">
         <v>39</v>
       </c>
@@ -17103,7 +17114,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="19" t="s">
         <v>39</v>
       </c>
@@ -17146,7 +17157,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="19" t="s">
         <v>39</v>
       </c>
@@ -17197,7 +17208,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="19" t="s">
         <v>39</v>
       </c>
@@ -17244,7 +17255,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="19" t="s">
         <v>39</v>
       </c>
@@ -17293,7 +17304,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="19" t="s">
         <v>39</v>
       </c>
@@ -17336,7 +17347,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="19" t="s">
         <v>39</v>
       </c>
@@ -17383,7 +17394,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="19" t="s">
         <v>39</v>
       </c>
@@ -17426,7 +17437,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="19" t="s">
         <v>39</v>
       </c>
@@ -17473,7 +17484,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="19" t="s">
         <v>39</v>
       </c>
@@ -17522,7 +17533,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="19" t="s">
         <v>39</v>
       </c>
@@ -17571,7 +17582,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
         <v>39</v>
       </c>
@@ -17620,7 +17631,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>39</v>
       </c>
@@ -17669,7 +17680,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>39</v>
       </c>
@@ -17718,7 +17729,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="19" t="s">
         <v>39</v>
       </c>
@@ -17767,7 +17778,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="19" t="s">
         <v>39</v>
       </c>
@@ -17816,7 +17827,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="19" t="s">
         <v>39</v>
       </c>
@@ -17865,7 +17876,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="60" t="s">
         <v>39</v>
       </c>
@@ -17900,7 +17911,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="19" t="s">
         <v>40</v>
       </c>
@@ -17935,7 +17946,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="19" t="s">
         <v>40</v>
       </c>
@@ -17979,7 +17990,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="19" t="s">
         <v>40</v>
       </c>
@@ -18014,7 +18025,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="19" t="s">
         <v>40</v>
       </c>
@@ -18049,7 +18060,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="19" t="s">
         <v>40</v>
       </c>
@@ -18081,7 +18092,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="19" t="s">
         <v>39</v>
       </c>
@@ -18112,17 +18123,49 @@
       <c r="K96" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="N96" s="146"/>
+      <c r="N96" s="136"/>
       <c r="P96" s="1" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E98" s="1" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="147"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E99" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>1433</v>
+      <c r="F99" s="1" t="s">
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -18141,7 +18184,7 @@
       <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
@@ -18152,7 +18195,7 @@
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
         <v>389</v>
       </c>
@@ -18173,7 +18216,7 @@
       </c>
       <c r="G1" s="43"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>158</v>
       </c>
@@ -18192,7 +18235,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>539</v>
       </c>
@@ -18211,7 +18254,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>540</v>
       </c>
@@ -18230,7 +18273,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>541</v>
       </c>
@@ -18249,7 +18292,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>167</v>
       </c>
@@ -18268,7 +18311,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
@@ -18287,7 +18330,7 @@
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>163</v>
       </c>
@@ -18306,7 +18349,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>310</v>
       </c>
@@ -18325,7 +18368,7 @@
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>311</v>
       </c>
@@ -18344,7 +18387,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="62" t="s">
         <v>312</v>
       </c>
@@ -18365,7 +18408,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>1145</v>
       </c>
@@ -18384,7 +18427,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>1146</v>
       </c>
@@ -18403,7 +18446,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>1187</v>
       </c>
@@ -18420,7 +18463,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>1188</v>
       </c>
@@ -18437,7 +18480,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>1358</v>
@@ -18452,7 +18495,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>1359</v>
@@ -18467,7 +18510,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
         <v>1366</v>
       </c>
@@ -18497,7 +18540,7 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="17" bestFit="1" customWidth="1"/>
@@ -18511,7 +18554,7 @@
     <col min="10" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>174</v>
       </c>
@@ -18549,7 +18592,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="38">
         <v>18</v>
       </c>
@@ -18576,7 +18619,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="38">
         <v>29</v>
       </c>
@@ -18605,7 +18648,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -18634,7 +18677,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="38">
         <v>1</v>
       </c>
@@ -18663,7 +18706,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="38">
         <v>25</v>
       </c>
@@ -18690,7 +18733,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="38">
         <v>41</v>
       </c>
@@ -18717,7 +18760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="38">
         <v>38</v>
       </c>
@@ -18744,7 +18787,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="42" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="41">
         <v>17</v>
       </c>
@@ -18773,7 +18816,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="38">
         <v>20</v>
       </c>
@@ -18800,7 +18843,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="38">
         <v>15</v>
       </c>
@@ -18829,7 +18872,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="38">
         <v>10</v>
       </c>
@@ -18858,7 +18901,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="38">
         <v>14</v>
       </c>
@@ -18885,7 +18928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="42" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>5</v>
       </c>
@@ -18914,7 +18957,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="38">
         <v>6</v>
       </c>
@@ -18941,7 +18984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="38">
         <v>4</v>
       </c>
@@ -18970,7 +19013,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="38">
         <v>24</v>
       </c>
@@ -18997,7 +19040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="38">
         <v>12</v>
       </c>
@@ -19024,7 +19067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="38">
         <v>13</v>
       </c>
@@ -19051,7 +19094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="38">
         <v>22</v>
       </c>
@@ -19078,7 +19121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="38">
         <v>23</v>
       </c>
@@ -19105,7 +19148,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="38">
         <v>26</v>
       </c>
@@ -19132,7 +19175,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="38">
         <v>27</v>
       </c>
@@ -19159,7 +19202,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="38">
         <v>28</v>
       </c>
@@ -19186,7 +19229,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="38">
         <v>30</v>
       </c>
@@ -19213,7 +19256,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="38">
         <v>9</v>
       </c>
@@ -19240,7 +19283,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="38">
         <v>3</v>
       </c>
@@ -19269,7 +19312,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="38">
         <v>11</v>
       </c>
@@ -19292,7 +19335,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="38">
         <v>31</v>
       </c>
@@ -19311,7 +19354,7 @@
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="38">
         <v>32</v>
       </c>
@@ -19330,7 +19373,7 @@
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
     </row>
-    <row r="31" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="38">
         <v>33</v>
       </c>
@@ -19349,7 +19392,7 @@
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
     </row>
-    <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="38">
         <v>34</v>
       </c>
@@ -19368,7 +19411,7 @@
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="38">
         <v>35</v>
       </c>
@@ -19387,7 +19430,7 @@
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
     </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A34" s="38">
         <v>36</v>
       </c>
@@ -19406,7 +19449,7 @@
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A35" s="38">
         <v>37</v>
       </c>
@@ -19425,7 +19468,7 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
     </row>
-    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A36" s="38">
         <v>21</v>
       </c>
@@ -19444,7 +19487,7 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
     </row>
-    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="38">
         <v>19</v>
       </c>
@@ -19463,7 +19506,7 @@
       <c r="H37" s="41"/>
       <c r="I37" s="41"/>
     </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="38">
         <v>16</v>
       </c>
@@ -19482,7 +19525,7 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
     </row>
-    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="38">
         <v>7</v>
       </c>
@@ -19509,7 +19552,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="38">
         <v>8</v>
       </c>
@@ -19528,7 +19571,7 @@
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
     </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="38">
         <v>39</v>
       </c>
@@ -19555,7 +19598,7 @@
       </c>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="38">
         <v>40</v>
       </c>
@@ -19599,7 +19642,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.5" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" style="50" bestFit="1" customWidth="1"/>
@@ -19612,14 +19655,14 @@
     <col min="10" max="11" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
         <v>1104</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="110" t="s">
         <v>1100</v>
       </c>
@@ -19630,7 +19673,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="110" t="s">
         <v>1111</v>
       </c>
@@ -19641,7 +19684,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A4" s="110" t="s">
         <v>1112</v>
       </c>
@@ -19652,7 +19695,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="110" t="s">
         <v>1113</v>
       </c>
@@ -19663,7 +19706,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="110" t="s">
         <v>1114</v>
       </c>
@@ -19674,7 +19717,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="110" t="s">
         <v>1115</v>
       </c>
@@ -19685,7 +19728,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A8" s="110" t="s">
         <v>1116</v>
       </c>
@@ -19696,7 +19739,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="110" t="s">
         <v>1117</v>
       </c>
@@ -19707,7 +19750,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="110" t="s">
         <v>1120</v>
       </c>
@@ -19718,7 +19761,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A11" s="110" t="s">
         <v>1121</v>
       </c>
@@ -19729,7 +19772,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="110" t="s">
         <v>1122</v>
       </c>
@@ -19740,7 +19783,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>1123</v>
       </c>
@@ -19751,7 +19794,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>1124</v>
       </c>
@@ -19762,7 +19805,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>1125</v>
       </c>
@@ -19773,7 +19816,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A16" s="110" t="s">
         <v>1101</v>
       </c>
@@ -19784,7 +19827,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A17" s="110" t="s">
         <v>1102</v>
       </c>
@@ -19795,7 +19838,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="52" t="s">
         <v>1136</v>
       </c>
@@ -19806,7 +19849,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>150</v>
       </c>
@@ -19817,7 +19860,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>51</v>
       </c>
@@ -19828,7 +19871,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="110" t="s">
         <v>1173</v>
       </c>
@@ -19839,7 +19882,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>107</v>
       </c>
@@ -19850,7 +19893,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="110" t="s">
         <v>1103</v>
       </c>
@@ -19861,7 +19904,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="132" t="s">
         <v>1371</v>
       </c>
@@ -19872,7 +19915,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A25" s="110" t="s">
         <v>1180</v>
       </c>
@@ -19883,24 +19926,24 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="111"/>
       <c r="B26" s="111"/>
       <c r="C26" s="111"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="111"/>
       <c r="B27" s="111"/>
       <c r="C27" s="111"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="92" t="s">
         <v>1138</v>
       </c>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="51" t="s">
         <v>357</v>
       </c>
@@ -19914,7 +19957,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>1183</v>
       </c>
@@ -19928,7 +19971,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>1184</v>
       </c>
@@ -19942,7 +19985,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.15">
       <c r="A33" s="51" t="s">
         <v>1182</v>
       </c>
@@ -19956,7 +19999,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A34" s="51" t="s">
         <v>1416</v>
       </c>
@@ -19970,7 +20013,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A35" s="51" t="s">
         <v>1419</v>
       </c>
@@ -19984,35 +20027,35 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="144" t="s">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="A36" s="134" t="s">
         <v>1422</v>
       </c>
       <c r="B36" s="111" t="s">
         <v>1423</v>
       </c>
-      <c r="C36" s="145" t="s">
+      <c r="C36" s="135" t="s">
         <v>1424</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="144" t="s">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A37" s="134" t="s">
         <v>1426</v>
       </c>
       <c r="B37" s="111" t="s">
         <v>1427</v>
       </c>
-      <c r="C37" s="145" t="s">
+      <c r="C37" s="135" t="s">
         <v>1424</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="135" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="92" t="s">
         <v>1139</v>
       </c>
@@ -20022,7 +20065,7 @@
       <c r="E39" s="121"/>
       <c r="F39" s="121"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="120" t="s">
         <v>359</v>
       </c>
@@ -20042,245 +20085,245 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="123" t="s">
         <v>1327</v>
       </c>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="139" t="s">
         <v>1329</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="138" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="123" t="s">
         <v>1262</v>
       </c>
-      <c r="B42" s="136"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="119"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="135"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="138"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="123" t="s">
         <v>1263</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="119"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="135"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="138"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="123" t="s">
         <v>1335</v>
       </c>
-      <c r="B44" s="136"/>
+      <c r="B44" s="139"/>
       <c r="C44" s="119"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="135"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="138"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="123" t="s">
         <v>1303</v>
       </c>
-      <c r="B45" s="136"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="119"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="135"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="138"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="123" t="s">
         <v>1311</v>
       </c>
-      <c r="B46" s="136"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="119"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="135"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="138"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="124" t="s">
         <v>1336</v>
       </c>
-      <c r="B47" s="136"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="119"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="135"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="138"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="124" t="s">
         <v>1305</v>
       </c>
-      <c r="B48" s="136"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="119"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="135"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="138"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="124" t="s">
         <v>1313</v>
       </c>
-      <c r="B49" s="136"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="119"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="135"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="138"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="124" t="s">
         <v>1318</v>
       </c>
-      <c r="B50" s="136"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="119"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="135"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="138"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="124" t="s">
         <v>1291</v>
       </c>
-      <c r="B51" s="136"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="119"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="135"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="138"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="124" t="s">
         <v>1306</v>
       </c>
-      <c r="B52" s="136"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="119"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="135"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="138"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="124" t="s">
         <v>1314</v>
       </c>
-      <c r="B53" s="136"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="119"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="135"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="138"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="124" t="s">
         <v>1295</v>
       </c>
-      <c r="B54" s="136"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="119"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="135"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="138"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="124" t="s">
         <v>1307</v>
       </c>
-      <c r="B55" s="136"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="119"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="135"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="138"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="124" t="s">
         <v>1315</v>
       </c>
-      <c r="B56" s="136"/>
+      <c r="B56" s="139"/>
       <c r="C56" s="119"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="135"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="138"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="136"/>
+      <c r="B57" s="139"/>
       <c r="C57" s="119"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="135"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="138"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="124" t="s">
         <v>1265</v>
       </c>
-      <c r="B58" s="136"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="119"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="135"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="138"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="124" t="s">
         <v>1298</v>
       </c>
-      <c r="B59" s="136"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="119"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="135"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="138"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="124" t="s">
         <v>1316</v>
       </c>
-      <c r="B60" s="136"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="119"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="135"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="138"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="124" t="s">
         <v>1266</v>
       </c>
-      <c r="B61" s="136"/>
+      <c r="B61" s="139"/>
       <c r="C61" s="119"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="135"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="138"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="124" t="s">
         <v>1301</v>
       </c>
-      <c r="B62" s="136"/>
+      <c r="B62" s="139"/>
       <c r="C62" s="119"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="135"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="138"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="124" t="s">
         <v>1310</v>
       </c>
-      <c r="B63" s="136"/>
+      <c r="B63" s="139"/>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="135"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="138"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="136"/>
+      <c r="B64" s="139"/>
       <c r="C64" s="119"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -20288,7 +20331,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>81</v>
       </c>
@@ -20302,147 +20345,147 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="125" t="s">
         <v>1278</v>
       </c>
-      <c r="B66" s="137" t="s">
+      <c r="B66" s="140" t="s">
         <v>1330</v>
       </c>
       <c r="C66" s="119"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="135" t="s">
+      <c r="F66" s="138" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="125" t="s">
         <v>1286</v>
       </c>
-      <c r="B67" s="137"/>
+      <c r="B67" s="140"/>
       <c r="C67" s="119"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="135"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="138"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="125" t="s">
         <v>1274</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="140"/>
       <c r="C68" s="119"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="135"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="138"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="125" t="s">
         <v>1299</v>
       </c>
-      <c r="B69" s="137"/>
+      <c r="B69" s="140"/>
       <c r="C69" s="119"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="135"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="138"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="125" t="s">
         <v>1308</v>
       </c>
-      <c r="B70" s="137"/>
+      <c r="B70" s="140"/>
       <c r="C70" s="119"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="135"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="138"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="125" t="s">
         <v>1302</v>
       </c>
-      <c r="B71" s="137"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="119"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="135"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="138"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="137"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="119"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="135"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="138"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="125" t="s">
         <v>1292</v>
       </c>
-      <c r="B73" s="137"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="119"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="135" t="s">
+      <c r="F73" s="138" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="125" t="s">
         <v>1268</v>
       </c>
-      <c r="B74" s="137"/>
+      <c r="B74" s="140"/>
       <c r="C74" s="119"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="135"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="138"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="125" t="s">
         <v>1300</v>
       </c>
-      <c r="B75" s="137"/>
+      <c r="B75" s="140"/>
       <c r="C75" s="119"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="135"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="138"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="125" t="s">
         <v>1304</v>
       </c>
-      <c r="B76" s="137"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="119"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="135"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="138"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="B77" s="137"/>
+      <c r="B77" s="140"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="135"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="138"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="125" t="s">
         <v>1312</v>
       </c>
-      <c r="B78" s="137"/>
+      <c r="B78" s="140"/>
       <c r="C78" s="119"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="135"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="138"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="137"/>
+      <c r="B79" s="140"/>
       <c r="C79" s="119"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
@@ -20450,11 +20493,11 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
         <v>1317</v>
       </c>
-      <c r="B80" s="137"/>
+      <c r="B80" s="140"/>
       <c r="C80" s="119"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -20462,7 +20505,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A81" s="126" t="s">
         <v>1245</v>
       </c>
@@ -20478,7 +20521,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="127" t="s">
         <v>1249</v>
       </c>
@@ -20494,7 +20537,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="127" t="s">
         <v>1250</v>
       </c>
@@ -20510,7 +20553,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="17" t="s">
         <v>1256</v>
       </c>
@@ -20526,7 +20569,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="125" t="s">
         <v>1257</v>
       </c>
@@ -20542,7 +20585,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="125" t="s">
         <v>1258</v>
       </c>
@@ -20558,7 +20601,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17" t="s">
         <v>1297</v>
       </c>
@@ -20574,7 +20617,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A88" s="119" t="s">
         <v>1357</v>
       </c>
@@ -20615,7 +20658,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -20623,7 +20666,7 @@
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>1337</v>
       </c>
@@ -20640,7 +20683,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>79</v>
       </c>
@@ -20657,7 +20700,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>79</v>
       </c>
@@ -20674,7 +20717,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>79</v>
       </c>
@@ -20691,7 +20734,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>79</v>
       </c>
@@ -20708,7 +20751,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>79</v>
       </c>
@@ -20725,7 +20768,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>79</v>
       </c>
@@ -20742,7 +20785,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>79</v>
       </c>
@@ -20759,7 +20802,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>1262</v>
       </c>
@@ -20776,7 +20819,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>1263</v>
       </c>
@@ -20793,7 +20836,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20810,7 +20853,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20827,7 +20870,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20844,7 +20887,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20861,7 +20904,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20878,7 +20921,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20895,7 +20938,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>1289</v>
       </c>
@@ -20912,7 +20955,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>1303</v>
       </c>
@@ -20929,7 +20972,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>1311</v>
       </c>
@@ -20946,7 +20989,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>80</v>
       </c>
@@ -20963,7 +21006,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -20980,7 +21023,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>80</v>
       </c>
@@ -20997,7 +21040,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>80</v>
       </c>
@@ -21014,7 +21057,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
         <v>80</v>
       </c>
@@ -21031,7 +21074,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="17" t="s">
         <v>80</v>
       </c>
@@ -21048,7 +21091,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
         <v>80</v>
       </c>
@@ -21065,7 +21108,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>1283</v>
       </c>
@@ -21082,7 +21125,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21099,7 +21142,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21116,7 +21159,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21133,7 +21176,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21150,7 +21193,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21167,7 +21210,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21184,7 +21227,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21201,7 +21244,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
         <v>1274</v>
       </c>
@@ -21218,7 +21261,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21235,7 +21278,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21252,7 +21295,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21269,7 +21312,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21286,7 +21329,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21303,7 +21346,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21320,7 +21363,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21337,7 +21380,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="17" t="s">
         <v>1278</v>
       </c>
@@ -21354,7 +21397,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21371,7 +21414,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21388,7 +21431,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21405,7 +21448,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21422,7 +21465,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21439,7 +21482,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21456,7 +21499,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21473,7 +21516,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="17" t="s">
         <v>1286</v>
       </c>
@@ -21490,7 +21533,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
         <v>1305</v>
       </c>
@@ -21507,7 +21550,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21524,7 +21567,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21541,7 +21584,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21558,7 +21601,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21575,7 +21618,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21592,7 +21635,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21609,7 +21652,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21626,7 +21669,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>1299</v>
       </c>
@@ -21643,7 +21686,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="17" t="s">
         <v>1302</v>
       </c>
@@ -21660,7 +21703,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="17" t="s">
         <v>1313</v>
       </c>
@@ -21677,7 +21720,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="17" t="s">
         <v>1308</v>
       </c>
@@ -21694,7 +21737,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="17" t="s">
         <v>1308</v>
       </c>
@@ -21711,7 +21754,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>82</v>
       </c>
@@ -21728,7 +21771,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>1292</v>
       </c>
@@ -21745,7 +21788,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>1268</v>
       </c>
@@ -21762,7 +21805,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>1300</v>
       </c>
@@ -21779,7 +21822,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>1304</v>
       </c>
@@ -21796,7 +21839,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>1309</v>
       </c>
@@ -21813,7 +21856,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="17" t="s">
         <v>1312</v>
       </c>
@@ -21830,7 +21873,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="17" t="s">
         <v>1287</v>
       </c>
@@ -21847,7 +21890,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="17" t="s">
         <v>1291</v>
       </c>
@@ -21864,7 +21907,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="17" t="s">
         <v>1291</v>
       </c>
@@ -21881,7 +21924,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="17" t="s">
         <v>1291</v>
       </c>
@@ -21898,7 +21941,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="17" t="s">
         <v>1306</v>
       </c>
@@ -21915,7 +21958,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
         <v>1314</v>
       </c>
@@ -21932,7 +21975,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="17" t="s">
         <v>1295</v>
       </c>
@@ -21949,7 +21992,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
         <v>1295</v>
       </c>
@@ -21966,7 +22009,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
         <v>1295</v>
       </c>
@@ -21983,7 +22026,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
         <v>1307</v>
       </c>
@@ -22000,7 +22043,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
         <v>1315</v>
       </c>
@@ -22017,7 +22060,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="17" t="s">
         <v>83</v>
       </c>
@@ -22034,7 +22077,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22051,7 +22094,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22068,7 +22111,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22085,7 +22128,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22102,7 +22145,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22119,7 +22162,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22136,7 +22179,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="17" t="s">
         <v>1265</v>
       </c>
@@ -22153,7 +22196,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="17" t="s">
         <v>1298</v>
       </c>
@@ -22170,7 +22213,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="17" t="s">
         <v>1316</v>
       </c>
@@ -22187,7 +22230,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22204,7 +22247,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22221,7 +22264,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22238,7 +22281,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22255,7 +22298,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22272,7 +22315,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22289,7 +22332,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="17" t="s">
         <v>1266</v>
       </c>
@@ -22306,7 +22349,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="17" t="s">
         <v>1301</v>
       </c>
@@ -22323,7 +22366,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="17" t="s">
         <v>1310</v>
       </c>
@@ -22340,7 +22383,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="17" t="s">
         <v>84</v>
       </c>
@@ -22357,7 +22400,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="17" t="s">
         <v>84</v>
       </c>
@@ -22374,7 +22417,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="17" t="s">
         <v>84</v>
       </c>
@@ -22391,7 +22434,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="17" t="s">
         <v>84</v>
       </c>
@@ -22408,7 +22451,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="17" t="s">
         <v>84</v>
       </c>
@@ -22425,7 +22468,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="17" t="s">
         <v>84</v>
       </c>
@@ -22442,7 +22485,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="17" t="s">
         <v>84</v>
       </c>
@@ -22459,7 +22502,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="17" t="s">
         <v>1294</v>
       </c>
@@ -22476,7 +22519,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="17" t="s">
         <v>1294</v>
       </c>
@@ -22493,7 +22536,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="17" t="s">
         <v>1294</v>
       </c>
@@ -22510,7 +22553,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22527,7 +22570,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22544,7 +22587,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22561,7 +22604,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22578,7 +22621,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22595,7 +22638,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22612,7 +22655,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="17" t="s">
         <v>1245</v>
       </c>
@@ -22643,7 +22686,7 @@
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="50" bestFit="1" customWidth="1"/>
@@ -22655,7 +22698,7 @@
     <col min="8" max="16384" width="10.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>446</v>
       </c>
@@ -22676,11 +22719,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="142" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -22699,9 +22742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="138"/>
-      <c r="B3" s="135"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="142"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
       </c>
@@ -22718,8 +22761,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="138"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="142"/>
       <c r="B4" s="55" t="s">
         <v>433</v>
       </c>
@@ -22739,9 +22782,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="138"/>
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="142"/>
+      <c r="B5" s="138" t="s">
         <v>436</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -22760,9 +22803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="142"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
       </c>
@@ -22777,9 +22820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
-      <c r="B7" s="135"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="142"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
       </c>
@@ -22796,9 +22839,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="138"/>
-      <c r="B8" s="135"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="142"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
       </c>
@@ -22815,9 +22858,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="138"/>
-      <c r="B9" s="135" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="142"/>
+      <c r="B9" s="138" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -22836,9 +22879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="138"/>
-      <c r="B10" s="135"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="142"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
       </c>
@@ -22855,8 +22898,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="142"/>
       <c r="B11" s="55" t="s">
         <v>530</v>
       </c>
@@ -22876,8 +22919,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="142"/>
       <c r="B12" s="55" t="s">
         <v>438</v>
       </c>
@@ -22897,11 +22940,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="138" t="s">
         <v>441</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="138" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -22920,9 +22963,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="52" t="s">
         <v>445</v>
       </c>
@@ -22939,9 +22982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="52" t="s">
         <v>479</v>
       </c>
@@ -22956,9 +22999,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="52" t="s">
         <v>746</v>
       </c>
@@ -22975,9 +23018,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="135" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138" t="s">
         <v>450</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -22994,9 +23037,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="135"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="52" t="s">
         <v>451</v>
       </c>
@@ -23011,11 +23054,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="135" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="138" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="138" t="s">
         <v>453</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -23034,9 +23077,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="135"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="138"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="52" t="s">
         <v>455</v>
       </c>
@@ -23051,8 +23094,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="135"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="138"/>
       <c r="B21" s="55" t="s">
         <v>456</v>
       </c>
@@ -23072,11 +23115,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="135" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="138" t="s">
         <v>737</v>
       </c>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="138" t="s">
         <v>754</v>
       </c>
       <c r="C22" s="55" t="s">
@@ -23095,9 +23138,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="138"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="52" t="s">
         <v>740</v>
       </c>
@@ -23114,9 +23157,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="138"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="52" t="s">
         <v>752</v>
       </c>
@@ -23133,11 +23176,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="138" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="138" t="s">
         <v>459</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -23152,9 +23195,9 @@
       <c r="F25" s="52"/>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="138"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="52" t="s">
         <v>460</v>
       </c>
@@ -23167,9 +23210,9 @@
       <c r="F26" s="52"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="138"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="52" t="s">
         <v>461</v>
       </c>
@@ -23182,9 +23225,9 @@
       <c r="F27" s="52"/>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="135"/>
-      <c r="B28" s="135"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="52" t="s">
         <v>462</v>
       </c>
@@ -23197,9 +23240,9 @@
       <c r="F28" s="52"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="138"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="52" t="s">
         <v>464</v>
       </c>
@@ -23214,8 +23257,8 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="139" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="141" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23235,8 +23278,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="141"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23254,8 +23297,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="139"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="141"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23275,8 +23318,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="135" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="138" t="s">
         <v>466</v>
       </c>
       <c r="B33" s="55" t="s">
@@ -23298,8 +23341,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="135"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="138"/>
       <c r="B34" s="55" t="s">
         <v>468</v>
       </c>
@@ -23319,11 +23362,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="135" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="138" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="138" t="s">
         <v>471</v>
       </c>
       <c r="C35" s="52" t="s">
@@ -23342,9 +23385,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="52" t="s">
         <v>473</v>
       </c>
@@ -23361,7 +23404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="55" t="s">
         <v>515</v>
       </c>
@@ -23382,7 +23425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="55" t="s">
         <v>484</v>
       </c>
@@ -23403,7 +23446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="55" t="s">
         <v>487</v>
       </c>
@@ -23426,8 +23469,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="135" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="138" t="s">
         <v>490</v>
       </c>
       <c r="B40" s="55" t="s">
@@ -23447,8 +23490,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="135"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="138"/>
       <c r="B41" s="55" t="s">
         <v>493</v>
       </c>
@@ -23466,8 +23509,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="135" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="138" t="s">
         <v>496</v>
       </c>
       <c r="B42" s="55" t="s">
@@ -23489,8 +23532,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="135"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="138"/>
       <c r="B43" s="55" t="s">
         <v>522</v>
       </c>
@@ -23508,8 +23551,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="135"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="138"/>
       <c r="B44" s="55" t="s">
         <v>523</v>
       </c>
@@ -23527,8 +23570,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="135"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="138"/>
       <c r="B45" s="55" t="s">
         <v>524</v>
       </c>
@@ -23546,8 +23589,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="135"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="138"/>
       <c r="B46" s="55" t="s">
         <v>525</v>
       </c>
@@ -23565,8 +23608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="135"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="138"/>
       <c r="B47" s="55" t="s">
         <v>526</v>
       </c>
@@ -23584,8 +23627,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="135"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="138"/>
       <c r="B48" s="55" t="s">
         <v>500</v>
       </c>
@@ -23605,8 +23648,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="135"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="138"/>
       <c r="B49" s="55" t="s">
         <v>501</v>
       </c>
@@ -23624,7 +23667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="55" t="s">
         <v>503</v>
       </c>
@@ -23647,16 +23690,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23666,6 +23699,16 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23680,7 +23723,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
@@ -23698,7 +23741,7 @@
     <col min="16" max="16" width="33.5" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>583</v>
       </c>
@@ -23707,11 +23750,11 @@
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="146" t="s">
         <v>767</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="K1" s="70" t="s">
         <v>770</v>
       </c>
@@ -23732,7 +23775,7 @@
       </c>
       <c r="S1" s="56"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>622</v>
       </c>
@@ -23774,7 +23817,7 @@
       <c r="R2" s="83"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -23819,7 +23862,7 @@
       <c r="R3" s="82"/>
       <c r="S3" s="56"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -23861,7 +23904,7 @@
       </c>
       <c r="S4" s="56"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>624</v>
       </c>
@@ -23903,7 +23946,7 @@
       </c>
       <c r="S5" s="56"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B6" s="56"/>
       <c r="C6" s="17" t="s">
         <v>666</v>
@@ -23944,7 +23987,7 @@
       </c>
       <c r="S6" s="56"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C7" s="17" t="s">
         <v>667</v>
       </c>
@@ -23982,7 +24025,7 @@
       </c>
       <c r="S7" s="56"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C8" s="17" t="s">
         <v>668</v>
       </c>
@@ -24020,7 +24063,7 @@
       </c>
       <c r="S8" s="56"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C9" s="17" t="s">
         <v>669</v>
       </c>
@@ -24059,7 +24102,7 @@
       <c r="R9" s="82"/>
       <c r="S9" s="56"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C10" s="17" t="s">
         <v>670</v>
       </c>
@@ -24098,7 +24141,7 @@
       <c r="R10" s="83"/>
       <c r="S10" s="56"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C11" s="17" t="s">
         <v>1347</v>
       </c>
@@ -24136,7 +24179,7 @@
       </c>
       <c r="S11" s="56"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C12" s="17" t="s">
         <v>672</v>
       </c>
@@ -24174,7 +24217,7 @@
       </c>
       <c r="S12" s="56"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C13" s="17" t="s">
         <v>673</v>
       </c>
@@ -24215,7 +24258,7 @@
       <c r="R13" s="83"/>
       <c r="S13" s="56"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C14" s="17" t="s">
         <v>674</v>
       </c>
@@ -24254,7 +24297,7 @@
       <c r="R14" s="83"/>
       <c r="S14" s="56"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="17" t="s">
         <v>675</v>
       </c>
@@ -24292,7 +24335,7 @@
       </c>
       <c r="S15" s="56"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C16" s="17"/>
       <c r="D16" s="17" t="s">
         <v>728</v>
@@ -24328,7 +24371,7 @@
       </c>
       <c r="S16" s="56"/>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" s="90" t="s">
@@ -24361,7 +24404,7 @@
       </c>
       <c r="S17" s="56"/>
     </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" s="90" t="s">
@@ -24394,7 +24437,7 @@
       </c>
       <c r="S18" s="56"/>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19" s="90" t="s">
@@ -24427,7 +24470,7 @@
       </c>
       <c r="S19" s="56"/>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" s="90" t="s">
@@ -24460,7 +24503,7 @@
       </c>
       <c r="S20" s="56"/>
     </row>
-    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" s="90" t="s">
@@ -24492,7 +24535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22" s="90" t="s">
@@ -24524,7 +24567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23" s="90" t="s">
@@ -24556,7 +24599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24" s="90" t="s">
@@ -24590,7 +24633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25" s="90" t="s">
@@ -24622,19 +24665,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="134" t="s">
+      <c r="F26" s="137" t="s">
         <v>722</v>
       </c>
-      <c r="G26" s="134" t="s">
+      <c r="G26" s="137" t="s">
         <v>1023</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="I26" s="140" t="s">
+      <c r="I26" s="143" t="s">
         <v>763</v>
       </c>
       <c r="K26" s="69" t="s">
@@ -24654,15 +24697,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
       <c r="H27" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="I27" s="141"/>
+      <c r="I27" s="144"/>
       <c r="K27" s="69" t="s">
         <v>850</v>
       </c>
@@ -24680,15 +24723,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="I28" s="142"/>
+      <c r="I28" s="145"/>
       <c r="K28" s="69" t="s">
         <v>790</v>
       </c>
@@ -24706,7 +24749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" s="90" t="s">
@@ -24738,7 +24781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" s="90" t="s">
@@ -24770,7 +24813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -24796,7 +24839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -24819,7 +24862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
@@ -24842,7 +24885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.15">
       <c r="I34"/>
       <c r="K34" s="69" t="s">
         <v>825</v>
@@ -24861,7 +24904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.15">
       <c r="I35"/>
       <c r="K35" s="69" t="s">
         <v>841</v>
@@ -24880,7 +24923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K36" s="69" t="s">
         <v>842</v>
       </c>
@@ -24896,7 +24939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K37" s="69" t="s">
         <v>843</v>
       </c>
@@ -24914,80 +24957,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.15">
       <c r="I38" s="4"/>
       <c r="K38" s="69" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.15">
       <c r="I39" s="2"/>
       <c r="K39" s="69" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K40" s="69" t="s">
         <v>830</v>
       </c>
       <c r="P40"/>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K41" s="69" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K42" s="69" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K43" s="69" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K44" s="69" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K45" s="69" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K46" s="69" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K47" s="69" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.15">
       <c r="K48" s="69" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K49" s="17" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K50" s="69" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K51" s="69" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K52" s="17" t="s">
         <v>805</v>
       </c>
@@ -25015,7 +25058,7 @@
       <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="88" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
@@ -25029,7 +25072,7 @@
     <col min="14" max="20" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="87" t="s">
         <v>964</v>
       </c>
@@ -25100,7 +25143,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -25135,7 +25178,7 @@
       <c r="V2" s="96"/>
       <c r="W2" s="103"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -25188,7 +25231,7 @@
       <c r="V3" s="96"/>
       <c r="W3" s="103"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -25227,7 +25270,7 @@
       <c r="V4" s="96"/>
       <c r="W4" s="103"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -25268,7 +25311,7 @@
       <c r="V5" s="96"/>
       <c r="W5" s="103"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -25307,7 +25350,7 @@
       <c r="V6" s="96"/>
       <c r="W6" s="103"/>
     </row>
-    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -25348,7 +25391,7 @@
       <c r="V7" s="96"/>
       <c r="W7" s="103"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -25387,7 +25430,7 @@
       <c r="V8" s="96"/>
       <c r="W8" s="103"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -25426,7 +25469,7 @@
       <c r="V9" s="96"/>
       <c r="W9" s="103"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -25465,7 +25508,7 @@
       <c r="V10" s="96"/>
       <c r="W10" s="103"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -25506,7 +25549,7 @@
       <c r="V11" s="96"/>
       <c r="W11" s="103"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -25544,7 +25587,7 @@
       <c r="V12" s="96"/>
       <c r="W12" s="103"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -25582,7 +25625,7 @@
       <c r="V13" s="96"/>
       <c r="W13" s="103"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -25620,7 +25663,7 @@
       <c r="V14" s="96"/>
       <c r="W14" s="103"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -25659,7 +25702,7 @@
       <c r="V15" s="96"/>
       <c r="W15" s="103"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -25698,7 +25741,7 @@
       <c r="V16" s="96"/>
       <c r="W16" s="103"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -25737,7 +25780,7 @@
       <c r="V17" s="96"/>
       <c r="W17" s="103"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -25786,7 +25829,7 @@
       <c r="V18" s="96"/>
       <c r="W18" s="103"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -25825,7 +25868,7 @@
       <c r="V19" s="96"/>
       <c r="W19" s="103"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -25863,7 +25906,7 @@
       <c r="V20" s="96"/>
       <c r="W20" s="103"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -25906,7 +25949,7 @@
       <c r="V21" s="96"/>
       <c r="W21" s="103"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -25955,7 +25998,7 @@
       <c r="V22" s="96"/>
       <c r="W22" s="103"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -25998,7 +26041,7 @@
       <c r="V23" s="96"/>
       <c r="W23" s="103"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -26044,7 +26087,7 @@
       <c r="V24" s="96"/>
       <c r="W24" s="103"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -26087,7 +26130,7 @@
       <c r="V25" s="96"/>
       <c r="W25" s="103"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -26126,7 +26169,7 @@
       <c r="V26" s="96"/>
       <c r="W26" s="103"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -26169,7 +26212,7 @@
       <c r="V27" s="96"/>
       <c r="W27" s="103"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -26212,7 +26255,7 @@
       <c r="V28" s="96"/>
       <c r="W28" s="103"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -26255,7 +26298,7 @@
       <c r="V29" s="96"/>
       <c r="W29" s="103"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -26296,7 +26339,7 @@
       <c r="V30" s="96"/>
       <c r="W30" s="103"/>
     </row>
-    <row r="31" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -26337,7 +26380,7 @@
       <c r="V31" s="96"/>
       <c r="W31" s="103"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -26376,7 +26419,7 @@
       <c r="V32" s="96"/>
       <c r="W32" s="103"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -26415,7 +26458,7 @@
       <c r="V33" s="96"/>
       <c r="W33" s="103"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -26454,7 +26497,7 @@
       <c r="V34" s="96"/>
       <c r="W34" s="103"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -26497,7 +26540,7 @@
       <c r="V35" s="96"/>
       <c r="W35" s="103"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -26530,7 +26573,7 @@
       <c r="V36" s="97"/>
       <c r="W36" s="102"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -26565,12 +26608,12 @@
       <c r="V37" s="97"/>
       <c r="W37" s="102"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>970</v>
       </c>
@@ -26578,7 +26621,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>975</v>
       </c>
@@ -26586,7 +26629,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>974</v>
       </c>
@@ -26594,7 +26637,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>971</v>
       </c>
@@ -26602,7 +26645,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>972</v>
       </c>

--- a/docs/设计资料/bigdata-platform-architect.xlsx
+++ b/docs/设计资料/bigdata-platform-architect.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujiulin/workspace/deployment/docs/设计资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baozhiwang/local_dir/codes/deployment/docs/设计资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="24760" windowHeight="15540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="应用规划" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="迁移执行计划事宜" sheetId="6" r:id="rId7"/>
     <sheet name="模拟迁移" sheetId="7" r:id="rId8"/>
     <sheet name="模拟迁移立项排期" sheetId="8" r:id="rId9"/>
+    <sheet name="测试环境" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -996,7 +997,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1443">
   <si>
     <t>YARN</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1363,6 +1364,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>业务线作业</t>
@@ -1382,6 +1384,7 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/虎鲸业务线BI作业</t>
@@ -10738,6 +10741,33 @@
   </si>
   <si>
     <t>20390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <rPh sb="0" eb="1">
+      <t>fu wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kafka3 JMX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器</t>
+    <rPh sb="0" eb="1">
+      <t>ji qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigtest-appsvr-129-1
+bigtest-appsvr-129-2
+bigtest-appsvr-129-3
+bigtest-appsvr-129-4
+bigtest-appsvr-129-5
+bigtest-appsvr-129-6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10751,6 +10781,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11279,7 +11310,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11611,6 +11642,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11624,10 +11658,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11641,8 +11675,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
@@ -12184,7 +12218,7 @@
       <c r="Y1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="138" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="118" t="s">
@@ -12231,7 +12265,7 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.15">
-      <c r="A3" s="137"/>
+      <c r="A3" s="138"/>
       <c r="B3" s="118" t="s">
         <v>8</v>
       </c>
@@ -12278,7 +12312,7 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.15">
-      <c r="A4" s="137"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="118" t="s">
         <v>9</v>
       </c>
@@ -12331,7 +12365,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="138" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="118" t="s">
@@ -12380,7 +12414,7 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="118" t="s">
         <v>362</v>
       </c>
@@ -12427,7 +12461,7 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A7" s="137"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="118" t="s">
         <v>531</v>
       </c>
@@ -12474,7 +12508,7 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A8" s="137"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="118" t="s">
         <v>532</v>
       </c>
@@ -12521,7 +12555,7 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A9" s="137"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="118" t="s">
         <v>533</v>
       </c>
@@ -12648,7 +12682,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="138" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="118" t="s">
@@ -12706,7 +12740,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A12" s="137"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="118" t="s">
         <v>535</v>
       </c>
@@ -12762,7 +12796,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="137"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="118" t="s">
         <v>363</v>
       </c>
@@ -12818,7 +12852,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="137"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="118" t="s">
         <v>364</v>
       </c>
@@ -12871,7 +12905,7 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.15">
-      <c r="A15" s="137"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="118" t="s">
         <v>365</v>
       </c>
@@ -12924,7 +12958,7 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="137"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="118" t="s">
         <v>366</v>
       </c>
@@ -12977,7 +13011,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A17" s="137"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="118" t="s">
         <v>367</v>
       </c>
@@ -13083,7 +13117,7 @@
       <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="138" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="118" t="s">
@@ -13120,7 +13154,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="118" t="s">
         <v>28</v>
       </c>
@@ -13155,7 +13189,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="118" t="s">
         <v>29</v>
       </c>
@@ -13190,7 +13224,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A22" s="137"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="118" t="s">
         <v>30</v>
       </c>
@@ -13225,7 +13259,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.15">
-      <c r="A23" s="137"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="118" t="s">
         <v>31</v>
       </c>
@@ -13260,7 +13294,7 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.15">
-      <c r="A24" s="137"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="118" t="s">
         <v>34</v>
       </c>
@@ -13301,7 +13335,7 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="137"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="118" t="s">
         <v>36</v>
       </c>
@@ -13340,7 +13374,7 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A26" s="137"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="118" t="s">
         <v>37</v>
       </c>
@@ -13379,7 +13413,7 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A27" s="137"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="118" t="s">
         <v>38</v>
       </c>
@@ -13414,7 +13448,7 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="137"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="118" t="s">
         <v>42</v>
       </c>
@@ -13449,7 +13483,7 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A29" s="137"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="118" t="s">
         <v>163</v>
       </c>
@@ -13484,7 +13518,7 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A30" s="137"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="118" t="s">
         <v>310</v>
       </c>
@@ -13519,7 +13553,7 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="137"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="118" t="s">
         <v>311</v>
       </c>
@@ -13554,7 +13588,7 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A32" s="137"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="118" t="s">
         <v>312</v>
       </c>
@@ -13636,11 +13670,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B2">
+        <v>19094</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -18158,7 +18235,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="147"/>
+      <c r="A98" s="137"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E99" s="1" t="s">
@@ -19638,7 +19715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -20089,13 +20166,13 @@
       <c r="A41" s="123" t="s">
         <v>1327</v>
       </c>
-      <c r="B41" s="139" t="s">
+      <c r="B41" s="140" t="s">
         <v>1329</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="139" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -20103,227 +20180,227 @@
       <c r="A42" s="123" t="s">
         <v>1262</v>
       </c>
-      <c r="B42" s="139"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="119"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="138"/>
+      <c r="F42" s="139"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="123" t="s">
         <v>1263</v>
       </c>
-      <c r="B43" s="139"/>
+      <c r="B43" s="140"/>
       <c r="C43" s="119"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="138"/>
+      <c r="F43" s="139"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="123" t="s">
         <v>1335</v>
       </c>
-      <c r="B44" s="139"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="119"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="123" t="s">
         <v>1303</v>
       </c>
-      <c r="B45" s="139"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="119"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="123" t="s">
         <v>1311</v>
       </c>
-      <c r="B46" s="139"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="119"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
-      <c r="F46" s="138"/>
+      <c r="F46" s="139"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="124" t="s">
         <v>1336</v>
       </c>
-      <c r="B47" s="139"/>
+      <c r="B47" s="140"/>
       <c r="C47" s="119"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="138"/>
+      <c r="F47" s="139"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="124" t="s">
         <v>1305</v>
       </c>
-      <c r="B48" s="139"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="119"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
-      <c r="F48" s="138"/>
+      <c r="F48" s="139"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="124" t="s">
         <v>1313</v>
       </c>
-      <c r="B49" s="139"/>
+      <c r="B49" s="140"/>
       <c r="C49" s="119"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="138"/>
+      <c r="F49" s="139"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="124" t="s">
         <v>1318</v>
       </c>
-      <c r="B50" s="139"/>
+      <c r="B50" s="140"/>
       <c r="C50" s="119"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-      <c r="F50" s="138"/>
+      <c r="F50" s="139"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="124" t="s">
         <v>1291</v>
       </c>
-      <c r="B51" s="139"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="119"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="138"/>
+      <c r="F51" s="139"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="124" t="s">
         <v>1306</v>
       </c>
-      <c r="B52" s="139"/>
+      <c r="B52" s="140"/>
       <c r="C52" s="119"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
-      <c r="F52" s="138"/>
+      <c r="F52" s="139"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="124" t="s">
         <v>1314</v>
       </c>
-      <c r="B53" s="139"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="119"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="138"/>
+      <c r="F53" s="139"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="124" t="s">
         <v>1295</v>
       </c>
-      <c r="B54" s="139"/>
+      <c r="B54" s="140"/>
       <c r="C54" s="119"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-      <c r="F54" s="138"/>
+      <c r="F54" s="139"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="124" t="s">
         <v>1307</v>
       </c>
-      <c r="B55" s="139"/>
+      <c r="B55" s="140"/>
       <c r="C55" s="119"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="138"/>
+      <c r="F55" s="139"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="124" t="s">
         <v>1315</v>
       </c>
-      <c r="B56" s="139"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="119"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="138"/>
+      <c r="F56" s="139"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="139"/>
+      <c r="B57" s="140"/>
       <c r="C57" s="119"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
-      <c r="F57" s="138"/>
+      <c r="F57" s="139"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="124" t="s">
         <v>1265</v>
       </c>
-      <c r="B58" s="139"/>
+      <c r="B58" s="140"/>
       <c r="C58" s="119"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
-      <c r="F58" s="138"/>
+      <c r="F58" s="139"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="124" t="s">
         <v>1298</v>
       </c>
-      <c r="B59" s="139"/>
+      <c r="B59" s="140"/>
       <c r="C59" s="119"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
-      <c r="F59" s="138"/>
+      <c r="F59" s="139"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="124" t="s">
         <v>1316</v>
       </c>
-      <c r="B60" s="139"/>
+      <c r="B60" s="140"/>
       <c r="C60" s="119"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
-      <c r="F60" s="138"/>
+      <c r="F60" s="139"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="124" t="s">
         <v>1266</v>
       </c>
-      <c r="B61" s="139"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="119"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="138"/>
+      <c r="F61" s="139"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="124" t="s">
         <v>1301</v>
       </c>
-      <c r="B62" s="139"/>
+      <c r="B62" s="140"/>
       <c r="C62" s="119"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="138"/>
+      <c r="F62" s="139"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="124" t="s">
         <v>1310</v>
       </c>
-      <c r="B63" s="139"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="119"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="138"/>
+      <c r="F63" s="139"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="139"/>
+      <c r="B64" s="140"/>
       <c r="C64" s="119"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -20349,13 +20426,13 @@
       <c r="A66" s="125" t="s">
         <v>1278</v>
       </c>
-      <c r="B66" s="140" t="s">
+      <c r="B66" s="141" t="s">
         <v>1330</v>
       </c>
       <c r="C66" s="119"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-      <c r="F66" s="138" t="s">
+      <c r="F66" s="139" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -20363,71 +20440,71 @@
       <c r="A67" s="125" t="s">
         <v>1286</v>
       </c>
-      <c r="B67" s="140"/>
+      <c r="B67" s="141"/>
       <c r="C67" s="119"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-      <c r="F67" s="138"/>
+      <c r="F67" s="139"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="125" t="s">
         <v>1274</v>
       </c>
-      <c r="B68" s="140"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="119"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
-      <c r="F68" s="138"/>
+      <c r="F68" s="139"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="125" t="s">
         <v>1299</v>
       </c>
-      <c r="B69" s="140"/>
+      <c r="B69" s="141"/>
       <c r="C69" s="119"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="138"/>
+      <c r="F69" s="139"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="125" t="s">
         <v>1308</v>
       </c>
-      <c r="B70" s="140"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="119"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
-      <c r="F70" s="138"/>
+      <c r="F70" s="139"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="125" t="s">
         <v>1302</v>
       </c>
-      <c r="B71" s="140"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="119"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
-      <c r="F71" s="138"/>
+      <c r="F71" s="139"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="140"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="119"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
-      <c r="F72" s="138"/>
+      <c r="F72" s="139"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="125" t="s">
         <v>1292</v>
       </c>
-      <c r="B73" s="140"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="119"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="138" t="s">
+      <c r="F73" s="139" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -20435,57 +20512,57 @@
       <c r="A74" s="125" t="s">
         <v>1268</v>
       </c>
-      <c r="B74" s="140"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="119"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
-      <c r="F74" s="138"/>
+      <c r="F74" s="139"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="125" t="s">
         <v>1300</v>
       </c>
-      <c r="B75" s="140"/>
+      <c r="B75" s="141"/>
       <c r="C75" s="119"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
-      <c r="F75" s="138"/>
+      <c r="F75" s="139"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="125" t="s">
         <v>1304</v>
       </c>
-      <c r="B76" s="140"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="119"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
-      <c r="F76" s="138"/>
+      <c r="F76" s="139"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="125" t="s">
         <v>1309</v>
       </c>
-      <c r="B77" s="140"/>
+      <c r="B77" s="141"/>
       <c r="C77" s="119"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
-      <c r="F77" s="138"/>
+      <c r="F77" s="139"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="125" t="s">
         <v>1312</v>
       </c>
-      <c r="B78" s="140"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="119"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="138"/>
+      <c r="F78" s="139"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="140"/>
+      <c r="B79" s="141"/>
       <c r="C79" s="119"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
@@ -20497,7 +20574,7 @@
       <c r="A80" s="17" t="s">
         <v>1317</v>
       </c>
-      <c r="B80" s="140"/>
+      <c r="B80" s="141"/>
       <c r="C80" s="119"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -22723,7 +22800,7 @@
       <c r="A2" s="142" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>430</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -22744,7 +22821,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="142"/>
-      <c r="B3" s="138"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="52" t="s">
         <v>432</v>
       </c>
@@ -22784,7 +22861,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="142"/>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="139" t="s">
         <v>436</v>
       </c>
       <c r="C5" s="52" t="s">
@@ -22805,7 +22882,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="142"/>
-      <c r="B6" s="138"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="52" t="s">
         <v>750</v>
       </c>
@@ -22822,7 +22899,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="142"/>
-      <c r="B7" s="138"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="52" t="s">
         <v>735</v>
       </c>
@@ -22841,7 +22918,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="142"/>
-      <c r="B8" s="138"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="52" t="s">
         <v>738</v>
       </c>
@@ -22860,7 +22937,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="142"/>
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="139" t="s">
         <v>748</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -22881,7 +22958,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="142"/>
-      <c r="B10" s="138"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="55" t="s">
         <v>760</v>
       </c>
@@ -22941,10 +23018,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="139" t="s">
         <v>441</v>
       </c>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="139" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -22964,8 +23041,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="52" t="s">
         <v>445</v>
       </c>
@@ -22983,8 +23060,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="138"/>
-      <c r="B15" s="138"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="52" t="s">
         <v>479</v>
       </c>
@@ -23000,8 +23077,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="52" t="s">
         <v>746</v>
       </c>
@@ -23019,8 +23096,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="138"/>
-      <c r="B17" s="138" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139" t="s">
         <v>450</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -23038,8 +23115,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="52" t="s">
         <v>451</v>
       </c>
@@ -23055,10 +23132,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="139" t="s">
         <v>452</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="139" t="s">
         <v>453</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -23078,8 +23155,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="52" t="s">
         <v>455</v>
       </c>
@@ -23095,7 +23172,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="138"/>
+      <c r="A21" s="139"/>
       <c r="B21" s="55" t="s">
         <v>456</v>
       </c>
@@ -23116,10 +23193,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="138" t="s">
+      <c r="A22" s="139" t="s">
         <v>737</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="139" t="s">
         <v>754</v>
       </c>
       <c r="C22" s="55" t="s">
@@ -23139,8 +23216,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="138"/>
-      <c r="B23" s="138"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="52" t="s">
         <v>740</v>
       </c>
@@ -23158,8 +23235,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="52" t="s">
         <v>752</v>
       </c>
@@ -23177,10 +23254,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="138" t="s">
+      <c r="A25" s="139" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="139" t="s">
         <v>459</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -23196,8 +23273,8 @@
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
+      <c r="A26" s="139"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="52" t="s">
         <v>460</v>
       </c>
@@ -23211,8 +23288,8 @@
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="52" t="s">
         <v>461</v>
       </c>
@@ -23226,8 +23303,8 @@
       <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="52" t="s">
         <v>462</v>
       </c>
@@ -23241,8 +23318,8 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="138"/>
-      <c r="B29" s="138"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="52" t="s">
         <v>464</v>
       </c>
@@ -23258,7 +23335,7 @@
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="143" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="55" t="s">
@@ -23279,7 +23356,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="141"/>
+      <c r="A31" s="143"/>
       <c r="B31" s="55" t="s">
         <v>759</v>
       </c>
@@ -23298,7 +23375,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="141"/>
+      <c r="A32" s="143"/>
       <c r="B32" s="55" t="s">
         <v>568</v>
       </c>
@@ -23319,7 +23396,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="139" t="s">
         <v>466</v>
       </c>
       <c r="B33" s="55" t="s">
@@ -23342,7 +23419,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="138"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="55" t="s">
         <v>468</v>
       </c>
@@ -23363,10 +23440,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="139" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="139" t="s">
         <v>471</v>
       </c>
       <c r="C35" s="52" t="s">
@@ -23386,8 +23463,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="138"/>
-      <c r="B36" s="138"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="52" t="s">
         <v>473</v>
       </c>
@@ -23470,7 +23547,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="138" t="s">
+      <c r="A40" s="139" t="s">
         <v>490</v>
       </c>
       <c r="B40" s="55" t="s">
@@ -23491,7 +23568,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="138"/>
+      <c r="A41" s="139"/>
       <c r="B41" s="55" t="s">
         <v>493</v>
       </c>
@@ -23510,7 +23587,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="138" t="s">
+      <c r="A42" s="139" t="s">
         <v>496</v>
       </c>
       <c r="B42" s="55" t="s">
@@ -23533,7 +23610,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="138"/>
+      <c r="A43" s="139"/>
       <c r="B43" s="55" t="s">
         <v>522</v>
       </c>
@@ -23552,7 +23629,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="138"/>
+      <c r="A44" s="139"/>
       <c r="B44" s="55" t="s">
         <v>523</v>
       </c>
@@ -23571,7 +23648,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" s="138"/>
+      <c r="A45" s="139"/>
       <c r="B45" s="55" t="s">
         <v>524</v>
       </c>
@@ -23590,7 +23667,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="138"/>
+      <c r="A46" s="139"/>
       <c r="B46" s="55" t="s">
         <v>525</v>
       </c>
@@ -23609,7 +23686,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="138"/>
+      <c r="A47" s="139"/>
       <c r="B47" s="55" t="s">
         <v>526</v>
       </c>
@@ -23628,7 +23705,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="138"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="55" t="s">
         <v>500</v>
       </c>
@@ -23649,7 +23726,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="138"/>
+      <c r="A49" s="139"/>
       <c r="B49" s="55" t="s">
         <v>501</v>
       </c>
@@ -23690,6 +23767,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A19:A21"/>
@@ -23699,16 +23786,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23750,11 +23827,11 @@
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="147" t="s">
         <v>767</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
       <c r="K1" s="70" t="s">
         <v>770</v>
       </c>
@@ -24668,16 +24745,16 @@
     <row r="26" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="138" t="s">
         <v>722</v>
       </c>
-      <c r="G26" s="137" t="s">
+      <c r="G26" s="138" t="s">
         <v>1023</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="I26" s="143" t="s">
+      <c r="I26" s="144" t="s">
         <v>763</v>
       </c>
       <c r="K26" s="69" t="s">
@@ -24700,12 +24777,12 @@
     <row r="27" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="I27" s="144"/>
+      <c r="I27" s="145"/>
       <c r="K27" s="69" t="s">
         <v>850</v>
       </c>
@@ -24726,12 +24803,12 @@
     <row r="28" spans="4:19" x14ac:dyDescent="0.15">
       <c r="D28"/>
       <c r="E28"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="I28" s="145"/>
+      <c r="I28" s="146"/>
       <c r="K28" s="69" t="s">
         <v>790</v>
       </c>
